--- a/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EAB943-E441-8147-8987-DB8AC21E5E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C357916-7419-CB4C-B119-4CD795273121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="170">
   <si>
     <t>DOI</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Luciferase activity (RLU)</t>
   </si>
   <si>
-    <t>Rescue potentcy of trans. Activity</t>
-  </si>
-  <si>
     <t>vg copies/µg gDNA</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>Relative expression</t>
   </si>
   <si>
-    <t>DENV-specific antibody tiiter (2-fold over naïve)</t>
-  </si>
-  <si>
     <t>Fold change of MAP2</t>
   </si>
   <si>
@@ -435,13 +429,127 @@
   </si>
   <si>
     <t>Intact provirus (copies)/1e6 CD4+ T cells</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Bioluminescence</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Virus titer (pfu/tissue)</t>
+  </si>
+  <si>
+    <t>RNA count</t>
+  </si>
+  <si>
+    <t>Titer</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>DENV-specific antibody titer (2-fold over naïve)</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>Colony count</t>
+  </si>
+  <si>
+    <t>IC50</t>
+  </si>
+  <si>
+    <t>Equilibrium constant</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Radiant efficiency</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Protein concentration</t>
+  </si>
+  <si>
+    <t>Rescue potency of trans. Activity</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,12 +561,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,7 +586,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -503,19 +620,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,18 +950,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="166" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91:J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="37.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,8 +980,23 @@
       <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -862,8 +1012,23 @@
       <c r="E2" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -879,8 +1044,23 @@
       <c r="E3" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -896,8 +1076,23 @@
       <c r="E4" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -913,8 +1108,23 @@
       <c r="E5" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -930,8 +1140,23 @@
       <c r="E6" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -947,8 +1172,23 @@
       <c r="E7" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -964,8 +1204,23 @@
       <c r="E8" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -981,8 +1236,23 @@
       <c r="E9" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1268,23 @@
       <c r="E10" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1015,8 +1300,23 @@
       <c r="E11" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1332,23 @@
       <c r="E12" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1364,23 @@
       <c r="E13" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1396,23 @@
       <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1083,8 +1428,23 @@
       <c r="E15" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1100,8 +1460,23 @@
       <c r="E16" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1117,8 +1492,23 @@
       <c r="E17" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1134,8 +1524,23 @@
       <c r="E18" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1149,10 +1554,25 @@
         <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="F19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1166,10 +1586,25 @@
         <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1183,10 +1618,25 @@
         <v>7</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1200,10 +1650,25 @@
         <v>7</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1217,10 +1682,25 @@
         <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1234,10 +1714,25 @@
         <v>7</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1251,10 +1746,25 @@
         <v>7</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1268,10 +1778,25 @@
         <v>7</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1285,10 +1810,25 @@
         <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1302,10 +1842,25 @@
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1319,10 +1874,25 @@
         <v>7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1336,10 +1906,25 @@
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1353,10 +1938,25 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1370,10 +1970,25 @@
         <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1387,10 +2002,25 @@
         <v>7</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1404,10 +2034,25 @@
         <v>7</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1421,10 +2066,25 @@
         <v>7</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1438,10 +2098,25 @@
         <v>7</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1455,10 +2130,25 @@
         <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1472,10 +2162,25 @@
         <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1489,10 +2194,25 @@
         <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" t="s">
+        <v>150</v>
+      </c>
+      <c r="J39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -1506,10 +2226,25 @@
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1523,10 +2258,25 @@
         <v>7</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1540,10 +2290,25 @@
         <v>7</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" t="s">
+        <v>150</v>
+      </c>
+      <c r="J42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1557,10 +2322,25 @@
         <v>7</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" t="s">
+        <v>150</v>
+      </c>
+      <c r="J43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -1574,10 +2354,25 @@
         <v>7</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -1591,10 +2386,25 @@
         <v>7</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F45" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" t="s">
+        <v>149</v>
+      </c>
+      <c r="I45" t="s">
+        <v>150</v>
+      </c>
+      <c r="J45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -1608,10 +2418,25 @@
         <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="F46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H46" t="s">
+        <v>152</v>
+      </c>
+      <c r="I46" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -1625,10 +2450,25 @@
         <v>7</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1642,10 +2482,25 @@
         <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="F48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1659,10 +2514,25 @@
         <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="F49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" t="s">
+        <v>154</v>
+      </c>
+      <c r="J49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1676,10 +2546,25 @@
         <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" t="s">
+        <v>153</v>
+      </c>
+      <c r="I50" t="s">
+        <v>154</v>
+      </c>
+      <c r="J50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -1693,10 +2578,25 @@
         <v>7</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51" t="s">
+        <v>154</v>
+      </c>
+      <c r="J51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -1710,10 +2610,25 @@
         <v>7</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H52" t="s">
+        <v>152</v>
+      </c>
+      <c r="I52" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -1727,10 +2642,25 @@
         <v>7</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" t="s">
+        <v>152</v>
+      </c>
+      <c r="I53" t="s">
+        <v>150</v>
+      </c>
+      <c r="J53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -1744,10 +2674,25 @@
         <v>7</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F54" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" t="s">
+        <v>152</v>
+      </c>
+      <c r="I54" t="s">
+        <v>150</v>
+      </c>
+      <c r="J54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -1761,10 +2706,25 @@
         <v>7</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I55" t="s">
+        <v>150</v>
+      </c>
+      <c r="J55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -1778,10 +2738,25 @@
         <v>7</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F56" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H56" t="s">
+        <v>153</v>
+      </c>
+      <c r="I56" t="s">
+        <v>154</v>
+      </c>
+      <c r="J56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -1795,10 +2770,25 @@
         <v>7</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57" t="s">
+        <v>153</v>
+      </c>
+      <c r="I57" t="s">
+        <v>154</v>
+      </c>
+      <c r="J57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -1812,10 +2802,25 @@
         <v>7</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F58" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" t="s">
+        <v>147</v>
+      </c>
+      <c r="H58" t="s">
+        <v>153</v>
+      </c>
+      <c r="I58" t="s">
+        <v>154</v>
+      </c>
+      <c r="J58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -1829,10 +2834,25 @@
         <v>7</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" t="s">
+        <v>147</v>
+      </c>
+      <c r="H59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I59" t="s">
+        <v>154</v>
+      </c>
+      <c r="J59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -1846,10 +2866,25 @@
         <v>7</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" t="s">
+        <v>153</v>
+      </c>
+      <c r="I60" t="s">
+        <v>154</v>
+      </c>
+      <c r="J60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -1863,10 +2898,25 @@
         <v>7</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" t="s">
+        <v>153</v>
+      </c>
+      <c r="I61" t="s">
+        <v>154</v>
+      </c>
+      <c r="J61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -1880,10 +2930,25 @@
         <v>7</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" t="s">
+        <v>147</v>
+      </c>
+      <c r="H62" t="s">
+        <v>152</v>
+      </c>
+      <c r="I62" t="s">
+        <v>150</v>
+      </c>
+      <c r="J62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -1897,10 +2962,25 @@
         <v>7</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" t="s">
+        <v>152</v>
+      </c>
+      <c r="I63" t="s">
+        <v>150</v>
+      </c>
+      <c r="J63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -1914,10 +2994,25 @@
         <v>7</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F64" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" t="s">
+        <v>147</v>
+      </c>
+      <c r="H64" t="s">
+        <v>153</v>
+      </c>
+      <c r="I64" t="s">
+        <v>154</v>
+      </c>
+      <c r="J64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -1931,10 +3026,25 @@
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="F65" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" t="s">
+        <v>152</v>
+      </c>
+      <c r="I65" t="s">
+        <v>150</v>
+      </c>
+      <c r="J65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -1948,10 +3058,25 @@
         <v>7</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F66" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" t="s">
+        <v>153</v>
+      </c>
+      <c r="I66" t="s">
+        <v>154</v>
+      </c>
+      <c r="J66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -1965,10 +3090,25 @@
         <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F67" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67" t="s">
+        <v>153</v>
+      </c>
+      <c r="I67" t="s">
+        <v>154</v>
+      </c>
+      <c r="J67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -1982,10 +3122,25 @@
         <v>7</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F68" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I68" t="s">
+        <v>150</v>
+      </c>
+      <c r="J68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -1999,10 +3154,25 @@
         <v>7</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F69" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" t="s">
+        <v>152</v>
+      </c>
+      <c r="I69" t="s">
+        <v>150</v>
+      </c>
+      <c r="J69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -2016,10 +3186,25 @@
         <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F70" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" t="s">
+        <v>147</v>
+      </c>
+      <c r="H70" t="s">
+        <v>153</v>
+      </c>
+      <c r="I70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -2033,10 +3218,25 @@
         <v>7</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" t="s">
+        <v>153</v>
+      </c>
+      <c r="I71" t="s">
+        <v>154</v>
+      </c>
+      <c r="J71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -2050,10 +3250,25 @@
         <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F72" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" t="s">
+        <v>153</v>
+      </c>
+      <c r="I72" t="s">
+        <v>154</v>
+      </c>
+      <c r="J72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -2067,10 +3282,25 @@
         <v>7</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="F73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" t="s">
+        <v>138</v>
+      </c>
+      <c r="H73" t="s">
+        <v>95</v>
+      </c>
+      <c r="I73" t="s">
+        <v>95</v>
+      </c>
+      <c r="J73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -2084,10 +3314,25 @@
         <v>7</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="F74" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" t="s">
+        <v>138</v>
+      </c>
+      <c r="H74" t="s">
+        <v>95</v>
+      </c>
+      <c r="I74" t="s">
+        <v>95</v>
+      </c>
+      <c r="J74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -2101,10 +3346,25 @@
         <v>7</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="F75" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" t="s">
+        <v>153</v>
+      </c>
+      <c r="I75" t="s">
+        <v>154</v>
+      </c>
+      <c r="J75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -2118,10 +3378,25 @@
         <v>7</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F76" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" t="s">
+        <v>138</v>
+      </c>
+      <c r="H76" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76" t="s">
+        <v>138</v>
+      </c>
+      <c r="J76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>44</v>
       </c>
@@ -2135,10 +3410,25 @@
         <v>7</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="F77" t="s">
+        <v>137</v>
+      </c>
+      <c r="G77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I77" t="s">
+        <v>142</v>
+      </c>
+      <c r="J77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -2152,10 +3442,25 @@
         <v>7</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="F78" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" t="s">
+        <v>156</v>
+      </c>
+      <c r="I78" t="s">
+        <v>154</v>
+      </c>
+      <c r="J78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>44</v>
       </c>
@@ -2169,10 +3474,25 @@
         <v>7</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="F79" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" t="s">
+        <v>147</v>
+      </c>
+      <c r="H79" t="s">
+        <v>156</v>
+      </c>
+      <c r="I79" t="s">
+        <v>154</v>
+      </c>
+      <c r="J79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -2186,10 +3506,25 @@
         <v>7</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" t="s">
+        <v>157</v>
+      </c>
+      <c r="I80" t="s">
+        <v>150</v>
+      </c>
+      <c r="J80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -2203,10 +3538,25 @@
         <v>7</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F81" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" t="s">
+        <v>147</v>
+      </c>
+      <c r="H81" t="s">
+        <v>157</v>
+      </c>
+      <c r="I81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -2220,10 +3570,25 @@
         <v>7</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F82" t="s">
+        <v>143</v>
+      </c>
+      <c r="G82" t="s">
+        <v>147</v>
+      </c>
+      <c r="H82" t="s">
+        <v>157</v>
+      </c>
+      <c r="I82" t="s">
+        <v>150</v>
+      </c>
+      <c r="J82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -2237,10 +3602,25 @@
         <v>7</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F83" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" t="s">
+        <v>157</v>
+      </c>
+      <c r="I83" t="s">
+        <v>150</v>
+      </c>
+      <c r="J83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -2254,10 +3634,25 @@
         <v>7</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F84" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" t="s">
+        <v>147</v>
+      </c>
+      <c r="H84" t="s">
+        <v>169</v>
+      </c>
+      <c r="I84" t="s">
+        <v>169</v>
+      </c>
+      <c r="J84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -2271,10 +3666,25 @@
         <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="F85" t="s">
+        <v>137</v>
+      </c>
+      <c r="G85" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" t="s">
+        <v>145</v>
+      </c>
+      <c r="I85" t="s">
+        <v>145</v>
+      </c>
+      <c r="J85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -2288,10 +3698,25 @@
         <v>7</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F86" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" t="s">
+        <v>147</v>
+      </c>
+      <c r="H86" t="s">
+        <v>153</v>
+      </c>
+      <c r="I86" t="s">
+        <v>154</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -2305,10 +3730,25 @@
         <v>7</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F87" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87" t="s">
+        <v>147</v>
+      </c>
+      <c r="H87" t="s">
+        <v>153</v>
+      </c>
+      <c r="I87" t="s">
+        <v>154</v>
+      </c>
+      <c r="J87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -2322,10 +3762,25 @@
         <v>7</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="F88" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" t="s">
+        <v>147</v>
+      </c>
+      <c r="H88" t="s">
+        <v>152</v>
+      </c>
+      <c r="I88" t="s">
+        <v>150</v>
+      </c>
+      <c r="J88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>49</v>
       </c>
@@ -2339,10 +3794,25 @@
         <v>7</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="F89" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" t="s">
+        <v>147</v>
+      </c>
+      <c r="H89" t="s">
+        <v>153</v>
+      </c>
+      <c r="I89" t="s">
+        <v>154</v>
+      </c>
+      <c r="J89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>50</v>
       </c>
@@ -2356,10 +3826,25 @@
         <v>7</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F90" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" t="s">
+        <v>138</v>
+      </c>
+      <c r="H90" t="s">
+        <v>138</v>
+      </c>
+      <c r="I90" t="s">
+        <v>138</v>
+      </c>
+      <c r="J90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -2373,10 +3858,25 @@
         <v>7</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F91" t="s">
+        <v>137</v>
+      </c>
+      <c r="G91" t="s">
+        <v>140</v>
+      </c>
+      <c r="H91" t="s">
+        <v>141</v>
+      </c>
+      <c r="I91" t="s">
+        <v>142</v>
+      </c>
+      <c r="J91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>50</v>
       </c>
@@ -2390,10 +3890,25 @@
         <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="F92" t="s">
+        <v>137</v>
+      </c>
+      <c r="G92" t="s">
+        <v>140</v>
+      </c>
+      <c r="H92" t="s">
+        <v>141</v>
+      </c>
+      <c r="I92" t="s">
+        <v>142</v>
+      </c>
+      <c r="J92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>50</v>
       </c>
@@ -2407,10 +3922,25 @@
         <v>7</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="F93" t="s">
+        <v>137</v>
+      </c>
+      <c r="G93" t="s">
+        <v>140</v>
+      </c>
+      <c r="H93" t="s">
+        <v>141</v>
+      </c>
+      <c r="I93" t="s">
+        <v>142</v>
+      </c>
+      <c r="J93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>50</v>
       </c>
@@ -2424,10 +3954,25 @@
         <v>7</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F94" t="s">
+        <v>137</v>
+      </c>
+      <c r="G94" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" t="s">
+        <v>138</v>
+      </c>
+      <c r="I94" t="s">
+        <v>138</v>
+      </c>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -2441,10 +3986,25 @@
         <v>7</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F95" t="s">
+        <v>137</v>
+      </c>
+      <c r="G95" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" t="s">
+        <v>138</v>
+      </c>
+      <c r="I95" t="s">
+        <v>138</v>
+      </c>
+      <c r="J95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -2458,10 +4018,25 @@
         <v>7</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="F96" t="s">
+        <v>137</v>
+      </c>
+      <c r="G96" t="s">
+        <v>140</v>
+      </c>
+      <c r="H96" t="s">
+        <v>95</v>
+      </c>
+      <c r="I96" t="s">
+        <v>95</v>
+      </c>
+      <c r="J96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>53</v>
       </c>
@@ -2475,10 +4050,25 @@
         <v>7</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="F97" t="s">
+        <v>143</v>
+      </c>
+      <c r="G97" t="s">
+        <v>147</v>
+      </c>
+      <c r="H97" t="s">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s">
+        <v>154</v>
+      </c>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>53</v>
       </c>
@@ -2492,10 +4082,25 @@
         <v>7</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="F98" t="s">
+        <v>143</v>
+      </c>
+      <c r="G98" t="s">
+        <v>147</v>
+      </c>
+      <c r="H98" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s">
+        <v>154</v>
+      </c>
+      <c r="J98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -2509,10 +4114,25 @@
         <v>7</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="F99" t="s">
+        <v>143</v>
+      </c>
+      <c r="G99" t="s">
+        <v>147</v>
+      </c>
+      <c r="H99" t="s">
+        <v>80</v>
+      </c>
+      <c r="I99" t="s">
+        <v>154</v>
+      </c>
+      <c r="J99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>53</v>
       </c>
@@ -2526,10 +4146,25 @@
         <v>7</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="F100" t="s">
+        <v>143</v>
+      </c>
+      <c r="G100" t="s">
+        <v>147</v>
+      </c>
+      <c r="H100" t="s">
+        <v>80</v>
+      </c>
+      <c r="I100" t="s">
+        <v>154</v>
+      </c>
+      <c r="J100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -2543,10 +4178,25 @@
         <v>7</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="F101" t="s">
+        <v>143</v>
+      </c>
+      <c r="G101" t="s">
+        <v>147</v>
+      </c>
+      <c r="H101" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s">
+        <v>154</v>
+      </c>
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -2560,10 +4210,25 @@
         <v>7</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="F102" t="s">
+        <v>143</v>
+      </c>
+      <c r="G102" t="s">
+        <v>147</v>
+      </c>
+      <c r="H102" t="s">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s">
+        <v>154</v>
+      </c>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>53</v>
       </c>
@@ -2577,10 +4242,25 @@
         <v>7</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="F103" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" t="s">
+        <v>147</v>
+      </c>
+      <c r="H103" t="s">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s">
+        <v>154</v>
+      </c>
+      <c r="J103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -2594,10 +4274,25 @@
         <v>7</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="F104" t="s">
+        <v>143</v>
+      </c>
+      <c r="G104" t="s">
+        <v>147</v>
+      </c>
+      <c r="H104" t="s">
+        <v>80</v>
+      </c>
+      <c r="I104" t="s">
+        <v>154</v>
+      </c>
+      <c r="J104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -2611,10 +4306,25 @@
         <v>7</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F105" t="s">
+        <v>143</v>
+      </c>
+      <c r="G105" t="s">
+        <v>147</v>
+      </c>
+      <c r="H105" t="s">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s">
+        <v>154</v>
+      </c>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>54</v>
       </c>
@@ -2628,10 +4338,25 @@
         <v>7</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="F106" t="s">
+        <v>143</v>
+      </c>
+      <c r="G106" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" t="s">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s">
+        <v>154</v>
+      </c>
+      <c r="J106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -2645,10 +4370,25 @@
         <v>7</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F107" t="s">
+        <v>143</v>
+      </c>
+      <c r="G107" t="s">
+        <v>147</v>
+      </c>
+      <c r="H107" t="s">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s">
+        <v>154</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -2662,10 +4402,25 @@
         <v>7</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F108" t="s">
+        <v>137</v>
+      </c>
+      <c r="G108" t="s">
+        <v>140</v>
+      </c>
+      <c r="H108" t="s">
+        <v>141</v>
+      </c>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>55</v>
       </c>
@@ -2679,10 +4434,25 @@
         <v>7</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F109" t="s">
+        <v>137</v>
+      </c>
+      <c r="G109" t="s">
+        <v>140</v>
+      </c>
+      <c r="H109" t="s">
+        <v>141</v>
+      </c>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>56</v>
       </c>
@@ -2696,10 +4466,25 @@
         <v>7</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="F110" t="s">
+        <v>143</v>
+      </c>
+      <c r="G110" t="s">
+        <v>147</v>
+      </c>
+      <c r="H110" t="s">
+        <v>116</v>
+      </c>
+      <c r="I110" t="s">
+        <v>163</v>
+      </c>
+      <c r="J110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>56</v>
       </c>
@@ -2713,10 +4498,25 @@
         <v>7</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="F111" t="s">
+        <v>143</v>
+      </c>
+      <c r="G111" t="s">
+        <v>147</v>
+      </c>
+      <c r="H111" t="s">
+        <v>162</v>
+      </c>
+      <c r="I111" t="s">
+        <v>163</v>
+      </c>
+      <c r="J111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>56</v>
       </c>
@@ -2730,10 +4530,25 @@
         <v>7</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="F112" t="s">
+        <v>143</v>
+      </c>
+      <c r="G112" t="s">
+        <v>147</v>
+      </c>
+      <c r="H112" t="s">
+        <v>162</v>
+      </c>
+      <c r="I112" t="s">
+        <v>163</v>
+      </c>
+      <c r="J112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>56</v>
       </c>
@@ -2747,10 +4562,25 @@
         <v>7</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="F113" t="s">
+        <v>143</v>
+      </c>
+      <c r="G113" t="s">
+        <v>147</v>
+      </c>
+      <c r="H113" t="s">
+        <v>162</v>
+      </c>
+      <c r="I113" t="s">
+        <v>163</v>
+      </c>
+      <c r="J113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>57</v>
       </c>
@@ -2764,10 +4594,25 @@
         <v>7</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="F114" t="s">
+        <v>143</v>
+      </c>
+      <c r="G114" t="s">
+        <v>147</v>
+      </c>
+      <c r="H114" t="s">
+        <v>149</v>
+      </c>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+      <c r="J114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>57</v>
       </c>
@@ -2781,10 +4626,25 @@
         <v>7</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="F115" t="s">
+        <v>143</v>
+      </c>
+      <c r="G115" t="s">
+        <v>147</v>
+      </c>
+      <c r="H115" t="s">
+        <v>149</v>
+      </c>
+      <c r="I115" t="s">
+        <v>150</v>
+      </c>
+      <c r="J115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -2798,10 +4658,25 @@
         <v>7</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F116" t="s">
+        <v>143</v>
+      </c>
+      <c r="G116" t="s">
+        <v>147</v>
+      </c>
+      <c r="H116" t="s">
+        <v>149</v>
+      </c>
+      <c r="I116" t="s">
+        <v>150</v>
+      </c>
+      <c r="J116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>58</v>
       </c>
@@ -2815,10 +4690,25 @@
         <v>7</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F117" t="s">
+        <v>143</v>
+      </c>
+      <c r="G117" t="s">
+        <v>147</v>
+      </c>
+      <c r="H117" t="s">
+        <v>149</v>
+      </c>
+      <c r="I117" t="s">
+        <v>150</v>
+      </c>
+      <c r="J117" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>58</v>
       </c>
@@ -2832,10 +4722,25 @@
         <v>7</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F118" t="s">
+        <v>143</v>
+      </c>
+      <c r="G118" t="s">
+        <v>147</v>
+      </c>
+      <c r="H118" t="s">
+        <v>149</v>
+      </c>
+      <c r="I118" t="s">
+        <v>150</v>
+      </c>
+      <c r="J118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>58</v>
       </c>
@@ -2849,10 +4754,25 @@
         <v>7</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F119" t="s">
+        <v>143</v>
+      </c>
+      <c r="G119" t="s">
+        <v>147</v>
+      </c>
+      <c r="H119" t="s">
+        <v>149</v>
+      </c>
+      <c r="I119" t="s">
+        <v>150</v>
+      </c>
+      <c r="J119" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>58</v>
       </c>
@@ -2866,10 +4786,25 @@
         <v>7</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F120" t="s">
+        <v>143</v>
+      </c>
+      <c r="G120" t="s">
+        <v>147</v>
+      </c>
+      <c r="H120" t="s">
+        <v>149</v>
+      </c>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+      <c r="J120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>59</v>
       </c>
@@ -2883,10 +4818,25 @@
         <v>7</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="F121" t="s">
+        <v>143</v>
+      </c>
+      <c r="G121" t="s">
+        <v>147</v>
+      </c>
+      <c r="H121" t="s">
+        <v>152</v>
+      </c>
+      <c r="I121" t="s">
+        <v>150</v>
+      </c>
+      <c r="J121" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>60</v>
       </c>
@@ -2900,10 +4850,25 @@
         <v>7</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F122" t="s">
+        <v>143</v>
+      </c>
+      <c r="G122" t="s">
+        <v>147</v>
+      </c>
+      <c r="H122" t="s">
+        <v>153</v>
+      </c>
+      <c r="I122" t="s">
+        <v>154</v>
+      </c>
+      <c r="J122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>61</v>
       </c>
@@ -2917,10 +4882,25 @@
         <v>7</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F123" t="s">
+        <v>143</v>
+      </c>
+      <c r="G123" t="s">
+        <v>147</v>
+      </c>
+      <c r="H123" t="s">
+        <v>153</v>
+      </c>
+      <c r="I123" t="s">
+        <v>154</v>
+      </c>
+      <c r="J123" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>61</v>
       </c>
@@ -2934,10 +4914,25 @@
         <v>7</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F124" t="s">
+        <v>137</v>
+      </c>
+      <c r="G124" t="s">
+        <v>140</v>
+      </c>
+      <c r="H124" t="s">
+        <v>144</v>
+      </c>
+      <c r="I124" t="s">
+        <v>142</v>
+      </c>
+      <c r="J124" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>61</v>
       </c>
@@ -2951,10 +4946,25 @@
         <v>7</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F125" t="s">
+        <v>137</v>
+      </c>
+      <c r="G125" t="s">
+        <v>140</v>
+      </c>
+      <c r="H125" t="s">
+        <v>144</v>
+      </c>
+      <c r="I125" t="s">
+        <v>142</v>
+      </c>
+      <c r="J125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>61</v>
       </c>
@@ -2968,10 +4978,25 @@
         <v>7</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F126" t="s">
+        <v>137</v>
+      </c>
+      <c r="G126" t="s">
+        <v>140</v>
+      </c>
+      <c r="H126" t="s">
+        <v>144</v>
+      </c>
+      <c r="I126" t="s">
+        <v>142</v>
+      </c>
+      <c r="J126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>61</v>
       </c>
@@ -2985,10 +5010,25 @@
         <v>7</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F127" t="s">
+        <v>137</v>
+      </c>
+      <c r="G127" t="s">
+        <v>140</v>
+      </c>
+      <c r="H127" t="s">
+        <v>144</v>
+      </c>
+      <c r="I127" t="s">
+        <v>142</v>
+      </c>
+      <c r="J127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -3002,10 +5042,25 @@
         <v>7</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F128" t="s">
+        <v>137</v>
+      </c>
+      <c r="G128" t="s">
+        <v>140</v>
+      </c>
+      <c r="H128" t="s">
+        <v>144</v>
+      </c>
+      <c r="I128" t="s">
+        <v>142</v>
+      </c>
+      <c r="J128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -3019,10 +5074,25 @@
         <v>7</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F129" t="s">
+        <v>137</v>
+      </c>
+      <c r="G129" t="s">
+        <v>140</v>
+      </c>
+      <c r="H129" t="s">
+        <v>144</v>
+      </c>
+      <c r="I129" t="s">
+        <v>142</v>
+      </c>
+      <c r="J129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>61</v>
       </c>
@@ -3036,10 +5106,25 @@
         <v>7</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F130" t="s">
+        <v>137</v>
+      </c>
+      <c r="G130" t="s">
+        <v>140</v>
+      </c>
+      <c r="H130" t="s">
+        <v>144</v>
+      </c>
+      <c r="I130" t="s">
+        <v>142</v>
+      </c>
+      <c r="J130" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>62</v>
       </c>
@@ -3053,10 +5138,25 @@
         <v>7</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F131" t="s">
+        <v>137</v>
+      </c>
+      <c r="G131" t="s">
+        <v>145</v>
+      </c>
+      <c r="H131" t="s">
+        <v>145</v>
+      </c>
+      <c r="I131" t="s">
+        <v>145</v>
+      </c>
+      <c r="J131" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>62</v>
       </c>
@@ -3070,10 +5170,25 @@
         <v>7</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F132" t="s">
+        <v>137</v>
+      </c>
+      <c r="G132" t="s">
+        <v>145</v>
+      </c>
+      <c r="H132" t="s">
+        <v>145</v>
+      </c>
+      <c r="I132" t="s">
+        <v>145</v>
+      </c>
+      <c r="J132" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>62</v>
       </c>
@@ -3087,10 +5202,25 @@
         <v>7</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F133" t="s">
+        <v>137</v>
+      </c>
+      <c r="G133" t="s">
+        <v>145</v>
+      </c>
+      <c r="H133" t="s">
+        <v>145</v>
+      </c>
+      <c r="I133" t="s">
+        <v>145</v>
+      </c>
+      <c r="J133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>62</v>
       </c>
@@ -3104,10 +5234,25 @@
         <v>7</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F134" t="s">
+        <v>137</v>
+      </c>
+      <c r="G134" t="s">
+        <v>145</v>
+      </c>
+      <c r="H134" t="s">
+        <v>145</v>
+      </c>
+      <c r="I134" t="s">
+        <v>145</v>
+      </c>
+      <c r="J134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>62</v>
       </c>
@@ -3121,10 +5266,25 @@
         <v>7</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F135" t="s">
+        <v>137</v>
+      </c>
+      <c r="G135" t="s">
+        <v>145</v>
+      </c>
+      <c r="H135" t="s">
+        <v>145</v>
+      </c>
+      <c r="I135" t="s">
+        <v>145</v>
+      </c>
+      <c r="J135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>62</v>
       </c>
@@ -3138,10 +5298,25 @@
         <v>7</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F136" t="s">
+        <v>137</v>
+      </c>
+      <c r="G136" t="s">
+        <v>145</v>
+      </c>
+      <c r="H136" t="s">
+        <v>145</v>
+      </c>
+      <c r="I136" t="s">
+        <v>145</v>
+      </c>
+      <c r="J136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>62</v>
       </c>
@@ -3155,10 +5330,25 @@
         <v>7</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F137" t="s">
+        <v>137</v>
+      </c>
+      <c r="G137" t="s">
+        <v>145</v>
+      </c>
+      <c r="H137" t="s">
+        <v>145</v>
+      </c>
+      <c r="I137" t="s">
+        <v>145</v>
+      </c>
+      <c r="J137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>62</v>
       </c>
@@ -3172,10 +5362,25 @@
         <v>7</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F138" t="s">
+        <v>137</v>
+      </c>
+      <c r="G138" t="s">
+        <v>145</v>
+      </c>
+      <c r="H138" t="s">
+        <v>145</v>
+      </c>
+      <c r="I138" t="s">
+        <v>145</v>
+      </c>
+      <c r="J138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>62</v>
       </c>
@@ -3189,10 +5394,25 @@
         <v>7</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F139" t="s">
+        <v>137</v>
+      </c>
+      <c r="G139" t="s">
+        <v>145</v>
+      </c>
+      <c r="H139" t="s">
+        <v>145</v>
+      </c>
+      <c r="I139" t="s">
+        <v>145</v>
+      </c>
+      <c r="J139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>63</v>
       </c>
@@ -3206,10 +5426,25 @@
         <v>7</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="F140" t="s">
+        <v>143</v>
+      </c>
+      <c r="G140" t="s">
+        <v>147</v>
+      </c>
+      <c r="H140" t="s">
+        <v>158</v>
+      </c>
+      <c r="I140" t="s">
+        <v>154</v>
+      </c>
+      <c r="J140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>63</v>
       </c>
@@ -3223,10 +5458,25 @@
         <v>7</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F141" t="s">
+        <v>143</v>
+      </c>
+      <c r="G141" t="s">
+        <v>147</v>
+      </c>
+      <c r="H141" t="s">
+        <v>153</v>
+      </c>
+      <c r="I141" t="s">
+        <v>154</v>
+      </c>
+      <c r="J141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>63</v>
       </c>
@@ -3240,10 +5490,25 @@
         <v>7</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F142" t="s">
+        <v>143</v>
+      </c>
+      <c r="G142" t="s">
+        <v>147</v>
+      </c>
+      <c r="H142" t="s">
+        <v>153</v>
+      </c>
+      <c r="I142" t="s">
+        <v>154</v>
+      </c>
+      <c r="J142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>63</v>
       </c>
@@ -3257,10 +5522,25 @@
         <v>7</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F143" t="s">
+        <v>143</v>
+      </c>
+      <c r="G143" t="s">
+        <v>147</v>
+      </c>
+      <c r="H143" t="s">
+        <v>153</v>
+      </c>
+      <c r="I143" t="s">
+        <v>154</v>
+      </c>
+      <c r="J143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>63</v>
       </c>
@@ -3274,10 +5554,25 @@
         <v>7</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F144" t="s">
+        <v>143</v>
+      </c>
+      <c r="G144" t="s">
+        <v>147</v>
+      </c>
+      <c r="H144" t="s">
+        <v>153</v>
+      </c>
+      <c r="I144" t="s">
+        <v>154</v>
+      </c>
+      <c r="J144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>63</v>
       </c>
@@ -3291,10 +5586,25 @@
         <v>7</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F145" t="s">
+        <v>143</v>
+      </c>
+      <c r="G145" t="s">
+        <v>147</v>
+      </c>
+      <c r="H145" t="s">
+        <v>159</v>
+      </c>
+      <c r="I145" t="s">
+        <v>160</v>
+      </c>
+      <c r="J145" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>63</v>
       </c>
@@ -3308,10 +5618,25 @@
         <v>7</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="F146" t="s">
+        <v>143</v>
+      </c>
+      <c r="G146" t="s">
+        <v>147</v>
+      </c>
+      <c r="H146" t="s">
+        <v>158</v>
+      </c>
+      <c r="I146" t="s">
+        <v>154</v>
+      </c>
+      <c r="J146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -3325,10 +5650,25 @@
         <v>7</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="F147" t="s">
+        <v>143</v>
+      </c>
+      <c r="G147" t="s">
+        <v>147</v>
+      </c>
+      <c r="H147" t="s">
+        <v>156</v>
+      </c>
+      <c r="I147" t="s">
+        <v>154</v>
+      </c>
+      <c r="J147" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>65</v>
       </c>
@@ -3342,10 +5682,25 @@
         <v>7</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="F148" t="s">
+        <v>143</v>
+      </c>
+      <c r="G148" t="s">
+        <v>147</v>
+      </c>
+      <c r="H148" t="s">
+        <v>150</v>
+      </c>
+      <c r="I148" t="s">
+        <v>150</v>
+      </c>
+      <c r="J148" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>65</v>
       </c>
@@ -3359,10 +5714,25 @@
         <v>7</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="F149" t="s">
+        <v>137</v>
+      </c>
+      <c r="G149" t="s">
+        <v>145</v>
+      </c>
+      <c r="H149" t="s">
+        <v>146</v>
+      </c>
+      <c r="I149" t="s">
+        <v>145</v>
+      </c>
+      <c r="J149" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>65</v>
       </c>
@@ -3376,10 +5746,25 @@
         <v>7</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="F150" t="s">
+        <v>137</v>
+      </c>
+      <c r="G150" t="s">
+        <v>145</v>
+      </c>
+      <c r="H150" t="s">
+        <v>146</v>
+      </c>
+      <c r="I150" t="s">
+        <v>145</v>
+      </c>
+      <c r="J150" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>66</v>
       </c>
@@ -3393,10 +5778,25 @@
         <v>7</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="F151" t="s">
+        <v>143</v>
+      </c>
+      <c r="G151" t="s">
+        <v>147</v>
+      </c>
+      <c r="H151" t="s">
+        <v>141</v>
+      </c>
+      <c r="I151" t="s">
+        <v>161</v>
+      </c>
+      <c r="J151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>67</v>
       </c>
@@ -3410,10 +5810,25 @@
         <v>7</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="F152" t="s">
+        <v>143</v>
+      </c>
+      <c r="G152" t="s">
+        <v>150</v>
+      </c>
+      <c r="H152" t="s">
+        <v>150</v>
+      </c>
+      <c r="I152" t="s">
+        <v>150</v>
+      </c>
+      <c r="J152" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>67</v>
       </c>
@@ -3427,10 +5842,26 @@
         <v>7</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="F153" t="s">
+        <v>143</v>
+      </c>
+      <c r="G153" t="s">
+        <v>150</v>
+      </c>
+      <c r="H153" t="s">
+        <v>150</v>
+      </c>
+      <c r="I153" t="s">
+        <v>150</v>
+      </c>
+      <c r="J153" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C357916-7419-CB4C-B119-4CD795273121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B051C499-748D-A945-809D-61D8CD1D057A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,9 +518,6 @@
     <t>Constant</t>
   </si>
   <si>
-    <t>Radiant efficiency</t>
-  </si>
-  <si>
     <t>p-value</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>Rate</t>
+  </si>
+  <si>
+    <t>Radiance</t>
   </si>
 </sst>
 </file>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91:J93"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
         <v>137</v>
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
         <v>160</v>
@@ -1586,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
         <v>137</v>
@@ -1595,7 +1595,7 @@
         <v>140</v>
       </c>
       <c r="H20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
         <v>160</v>
@@ -1618,7 +1618,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
         <v>137</v>
@@ -1627,7 +1627,7 @@
         <v>140</v>
       </c>
       <c r="H21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
         <v>160</v>
@@ -1755,10 +1755,10 @@
         <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J25" t="s">
         <v>139</v>
@@ -1787,10 +1787,10 @@
         <v>147</v>
       </c>
       <c r="H26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J26" t="s">
         <v>139</v>
@@ -1819,10 +1819,10 @@
         <v>147</v>
       </c>
       <c r="H27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
         <v>139</v>
@@ -1851,10 +1851,10 @@
         <v>140</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J28" t="s">
         <v>139</v>
@@ -2107,7 +2107,7 @@
         <v>147</v>
       </c>
       <c r="H36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I36" t="s">
         <v>154</v>
@@ -3643,10 +3643,10 @@
         <v>147</v>
       </c>
       <c r="H84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J84" t="s">
         <v>139</v>
@@ -4478,7 +4478,7 @@
         <v>116</v>
       </c>
       <c r="I110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J110" t="s">
         <v>139</v>
@@ -4507,10 +4507,10 @@
         <v>147</v>
       </c>
       <c r="H111" t="s">
+        <v>161</v>
+      </c>
+      <c r="I111" t="s">
         <v>162</v>
-      </c>
-      <c r="I111" t="s">
-        <v>163</v>
       </c>
       <c r="J111" t="s">
         <v>139</v>
@@ -4539,10 +4539,10 @@
         <v>147</v>
       </c>
       <c r="H112" t="s">
+        <v>161</v>
+      </c>
+      <c r="I112" t="s">
         <v>162</v>
-      </c>
-      <c r="I112" t="s">
-        <v>163</v>
       </c>
       <c r="J112" t="s">
         <v>139</v>
@@ -4571,10 +4571,10 @@
         <v>147</v>
       </c>
       <c r="H113" t="s">
+        <v>161</v>
+      </c>
+      <c r="I113" t="s">
         <v>162</v>
-      </c>
-      <c r="I113" t="s">
-        <v>163</v>
       </c>
       <c r="J113" t="s">
         <v>139</v>
@@ -5790,7 +5790,7 @@
         <v>141</v>
       </c>
       <c r="I151" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="J151" t="s">
         <v>139</v>
@@ -5816,7 +5816,7 @@
         <v>143</v>
       </c>
       <c r="G152" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H152" t="s">
         <v>150</v>
@@ -5848,7 +5848,7 @@
         <v>143</v>
       </c>
       <c r="G153" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H153" t="s">
         <v>150</v>

--- a/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B051C499-748D-A945-809D-61D8CD1D057A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79654A1C-D40F-2D4E-89E5-08BF485123C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="323">
   <si>
     <t>DOI</t>
   </si>
@@ -543,6 +543,465 @@
   </si>
   <si>
     <t>Radiance</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abc8226_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abc8226_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abm1262_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abn3464_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abn3464_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abn9155_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abn9155_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abn9155_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo1815_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo1815_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo2847_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo2847_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo2847_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo2847_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo2847_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo2847_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abo2847_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig14</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig15</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq0603_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig14</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig15</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig16</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig17</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig18</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig19</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig20</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig21</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig22</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig23</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig24</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig25</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig26</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig27</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq4064_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6288_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.abq6288_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.add2420_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.add4666_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade2581_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade2581_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade2581_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade2909_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade2909_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade2909_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade2909_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade3856_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade3856_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade3901_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade3901_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade5795_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade6422_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade7028_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.ade8732_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf2059_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4100_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4100_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4100_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4100_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4100_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4100_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4100_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4100_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4549_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4549_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf4549_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf5302_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf5302_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf5681_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf5681_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf5681_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf5681_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg0675_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg0675_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg0873_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg0873_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg0873_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg0873_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg0873_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg1855_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg2783_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg5567_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg5567_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg5567_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg5567_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg5567_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg5567_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg5567_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg5567_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6050_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6050_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6050_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6050_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6050_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6050_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6050_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6050_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg6050_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg7404_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg7404_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg7404_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg7404_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg7404_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg7404_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adg7404_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adh1892_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adh4529_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adh4529_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adh4529_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adi1617_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adi9867_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adi9867_log_fig2</t>
   </si>
 </sst>
 </file>
@@ -950,73 +1409,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I152" sqref="I152"/>
+      <selection activeCell="A128" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="37.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>137</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
       </c>
       <c r="H2" t="s">
         <v>138</v>
@@ -1025,62 +1487,68 @@
         <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>137</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>140</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>141</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>142</v>
       </c>
-      <c r="J3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>137</v>
-      </c>
-      <c r="G4" t="s">
-        <v>138</v>
       </c>
       <c r="H4" t="s">
         <v>138</v>
@@ -1089,30 +1557,33 @@
         <v>138</v>
       </c>
       <c r="J4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>137</v>
-      </c>
-      <c r="G5" t="s">
-        <v>138</v>
       </c>
       <c r="H5" t="s">
         <v>138</v>
@@ -1121,30 +1592,33 @@
         <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>137</v>
-      </c>
-      <c r="G6" t="s">
-        <v>138</v>
       </c>
       <c r="H6" t="s">
         <v>138</v>
@@ -1153,30 +1627,33 @@
         <v>138</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>137</v>
-      </c>
-      <c r="G7" t="s">
-        <v>138</v>
       </c>
       <c r="H7" t="s">
         <v>138</v>
@@ -1185,30 +1662,33 @@
         <v>138</v>
       </c>
       <c r="J7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>137</v>
-      </c>
-      <c r="G8" t="s">
-        <v>138</v>
       </c>
       <c r="H8" t="s">
         <v>138</v>
@@ -1217,190 +1697,208 @@
         <v>138</v>
       </c>
       <c r="J8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F9" t="s">
-        <v>143</v>
-      </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
         <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>137</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>145</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>146</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>145</v>
       </c>
-      <c r="J10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>137</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>145</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>146</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>145</v>
       </c>
-      <c r="J11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>137</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>145</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>146</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>145</v>
       </c>
-      <c r="J12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>137</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>145</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>146</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>145</v>
       </c>
-      <c r="J13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>137</v>
-      </c>
-      <c r="G14" t="s">
-        <v>138</v>
       </c>
       <c r="H14" t="s">
         <v>138</v>
@@ -1409,30 +1907,33 @@
         <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>137</v>
-      </c>
-      <c r="G15" t="s">
-        <v>138</v>
       </c>
       <c r="H15" t="s">
         <v>138</v>
@@ -1441,30 +1942,33 @@
         <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>137</v>
-      </c>
-      <c r="G16" t="s">
-        <v>138</v>
       </c>
       <c r="H16" t="s">
         <v>138</v>
@@ -1473,1918 +1977,2098 @@
         <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>137</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>140</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>144</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>142</v>
       </c>
-      <c r="J17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>137</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>140</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>144</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>142</v>
       </c>
-      <c r="J18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>137</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>140</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>167</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>160</v>
       </c>
-      <c r="J19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>137</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>140</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>167</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>160</v>
       </c>
-      <c r="J20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>137</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>140</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>167</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>160</v>
       </c>
-      <c r="J21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F22" t="s">
-        <v>143</v>
-      </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
         <v>150</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F23" t="s">
-        <v>143</v>
-      </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
         <v>150</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F24" t="s">
-        <v>143</v>
-      </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" t="s">
         <v>80</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>154</v>
       </c>
-      <c r="J24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="K24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F25" t="s">
-        <v>143</v>
-      </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H25" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" t="s">
         <v>163</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>162</v>
       </c>
-      <c r="J25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F26" t="s">
-        <v>143</v>
-      </c>
       <c r="G26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" t="s">
         <v>163</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>162</v>
       </c>
-      <c r="J26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="K26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F27" t="s">
-        <v>143</v>
-      </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" t="s">
         <v>163</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>162</v>
       </c>
-      <c r="J27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>137</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>140</v>
-      </c>
-      <c r="H28" t="s">
-        <v>164</v>
       </c>
       <c r="I28" t="s">
         <v>164</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F29" t="s">
-        <v>143</v>
-      </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" t="s">
         <v>80</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>154</v>
       </c>
-      <c r="J29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>18</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F30" t="s">
-        <v>143</v>
-      </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" t="s">
         <v>80</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>154</v>
       </c>
-      <c r="J30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>137</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>140</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>144</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>142</v>
       </c>
-      <c r="J31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="K31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F32" t="s">
-        <v>143</v>
-      </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" t="s">
         <v>149</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>150</v>
       </c>
-      <c r="J32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F33" t="s">
-        <v>143</v>
-      </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" t="s">
         <v>149</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>150</v>
       </c>
-      <c r="J33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F34" t="s">
-        <v>143</v>
-      </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" t="s">
         <v>149</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>150</v>
       </c>
-      <c r="J34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F35" t="s">
-        <v>143</v>
-      </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H35" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" t="s">
         <v>149</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>150</v>
       </c>
-      <c r="J35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>26</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F36" t="s">
-        <v>143</v>
-      </c>
       <c r="G36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" t="s">
         <v>165</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>154</v>
       </c>
-      <c r="J36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>27</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>137</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>140</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>144</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>142</v>
       </c>
-      <c r="J37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="K37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F38" t="s">
-        <v>143</v>
-      </c>
       <c r="G38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" t="s">
         <v>153</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>154</v>
       </c>
-      <c r="J38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="K38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" t="s">
         <v>25</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F39" t="s">
-        <v>143</v>
-      </c>
       <c r="G39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" t="s">
         <v>149</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>150</v>
       </c>
-      <c r="J39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="K39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s">
         <v>25</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F40" t="s">
-        <v>143</v>
-      </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H40" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" t="s">
         <v>149</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>150</v>
       </c>
-      <c r="J40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="K40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" t="s">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F41" t="s">
-        <v>143</v>
-      </c>
       <c r="G41" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H41" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" t="s">
         <v>149</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>150</v>
       </c>
-      <c r="J41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="K41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
         <v>25</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>17</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F42" t="s">
-        <v>143</v>
-      </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H42" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" t="s">
         <v>149</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>150</v>
       </c>
-      <c r="J42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="K42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" t="s">
         <v>25</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>18</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F43" t="s">
-        <v>143</v>
-      </c>
       <c r="G43" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H43" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" t="s">
         <v>149</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>150</v>
       </c>
-      <c r="J43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="K43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F44" t="s">
-        <v>143</v>
-      </c>
       <c r="G44" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" t="s">
         <v>149</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>150</v>
       </c>
-      <c r="J44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="K44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>20</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F45" t="s">
-        <v>143</v>
-      </c>
       <c r="G45" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H45" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45" t="s">
         <v>149</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>150</v>
       </c>
-      <c r="J45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="K45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s">
         <v>28</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F46" t="s">
-        <v>143</v>
-      </c>
       <c r="G46" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" t="s">
         <v>152</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>150</v>
       </c>
-      <c r="J46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="K46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" t="s">
         <v>28</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>10</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F47" t="s">
-        <v>143</v>
-      </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H47" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" t="s">
         <v>153</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>154</v>
       </c>
-      <c r="J47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="K47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" t="s">
         <v>28</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>11</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F48" t="s">
-        <v>143</v>
-      </c>
       <c r="G48" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H48" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" t="s">
         <v>153</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>154</v>
       </c>
-      <c r="J48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="K48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" t="s">
         <v>28</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F49" t="s">
-        <v>143</v>
-      </c>
       <c r="G49" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H49" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" t="s">
         <v>153</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>154</v>
       </c>
-      <c r="J49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="K49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" t="s">
         <v>28</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F50" t="s">
-        <v>143</v>
-      </c>
       <c r="G50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H50" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" t="s">
         <v>153</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>154</v>
       </c>
-      <c r="J50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="K50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s">
         <v>28</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>26</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F51" t="s">
-        <v>143</v>
-      </c>
       <c r="G51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H51" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51" t="s">
         <v>153</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>154</v>
       </c>
-      <c r="J51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="K51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" t="s">
         <v>28</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>27</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F52" t="s">
-        <v>143</v>
-      </c>
       <c r="G52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H52" t="s">
+        <v>147</v>
+      </c>
+      <c r="I52" t="s">
         <v>152</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>150</v>
       </c>
-      <c r="J52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="K52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" t="s">
         <v>28</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>29</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F53" t="s">
-        <v>143</v>
-      </c>
       <c r="G53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H53" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" t="s">
         <v>152</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>150</v>
       </c>
-      <c r="J53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="K53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" t="s">
         <v>28</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>30</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F54" t="s">
-        <v>143</v>
-      </c>
       <c r="G54" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H54" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" t="s">
         <v>152</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>150</v>
       </c>
-      <c r="J54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="K54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
         <v>28</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F55" t="s">
-        <v>143</v>
-      </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" t="s">
         <v>152</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>150</v>
       </c>
-      <c r="J55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="K55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" t="s">
         <v>28</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>32</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F56" t="s">
-        <v>143</v>
-      </c>
       <c r="G56" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H56" t="s">
+        <v>147</v>
+      </c>
+      <c r="I56" t="s">
         <v>153</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>154</v>
       </c>
-      <c r="J56" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="K56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" t="s">
         <v>28</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F57" t="s">
-        <v>143</v>
-      </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H57" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" t="s">
         <v>153</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>154</v>
       </c>
-      <c r="J57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="K57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" t="s">
         <v>28</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>33</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F58" t="s">
-        <v>143</v>
-      </c>
       <c r="G58" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H58" t="s">
+        <v>147</v>
+      </c>
+      <c r="I58" t="s">
         <v>153</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>154</v>
       </c>
-      <c r="J58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="K58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" t="s">
         <v>28</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>34</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F59" t="s">
-        <v>143</v>
-      </c>
       <c r="G59" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H59" t="s">
+        <v>147</v>
+      </c>
+      <c r="I59" t="s">
         <v>153</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>154</v>
       </c>
-      <c r="J59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="K59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" t="s">
         <v>28</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>35</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F60" t="s">
-        <v>143</v>
-      </c>
       <c r="G60" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H60" t="s">
+        <v>147</v>
+      </c>
+      <c r="I60" t="s">
         <v>153</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>154</v>
       </c>
-      <c r="J60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="K60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" t="s">
         <v>28</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>36</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F61" t="s">
-        <v>143</v>
-      </c>
       <c r="G61" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H61" t="s">
+        <v>147</v>
+      </c>
+      <c r="I61" t="s">
         <v>153</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>154</v>
       </c>
-      <c r="J61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="K61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B62" t="s">
         <v>28</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>37</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F62" t="s">
-        <v>143</v>
-      </c>
       <c r="G62" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H62" t="s">
+        <v>147</v>
+      </c>
+      <c r="I62" t="s">
         <v>152</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>150</v>
       </c>
-      <c r="J62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="K62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" t="s">
         <v>28</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>38</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F63" t="s">
-        <v>143</v>
-      </c>
       <c r="G63" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H63" t="s">
+        <v>147</v>
+      </c>
+      <c r="I63" t="s">
         <v>152</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>150</v>
       </c>
-      <c r="J63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="K63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" t="s">
         <v>28</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>39</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F64" t="s">
-        <v>143</v>
-      </c>
       <c r="G64" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H64" t="s">
+        <v>147</v>
+      </c>
+      <c r="I64" t="s">
         <v>153</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>154</v>
       </c>
-      <c r="J64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="K64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" t="s">
         <v>28</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>40</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F65" t="s">
-        <v>143</v>
-      </c>
       <c r="G65" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H65" t="s">
+        <v>147</v>
+      </c>
+      <c r="I65" t="s">
         <v>152</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>150</v>
       </c>
-      <c r="J65" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="K65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" t="s">
         <v>28</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>14</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F66" t="s">
-        <v>143</v>
-      </c>
       <c r="G66" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H66" t="s">
+        <v>147</v>
+      </c>
+      <c r="I66" t="s">
         <v>153</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>154</v>
       </c>
-      <c r="J66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="K66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" t="s">
         <v>28</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>15</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F67" t="s">
-        <v>143</v>
-      </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H67" t="s">
+        <v>147</v>
+      </c>
+      <c r="I67" t="s">
         <v>153</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>154</v>
       </c>
-      <c r="J67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="K67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68" t="s">
         <v>28</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>16</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F68" t="s">
-        <v>143</v>
-      </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H68" t="s">
+        <v>147</v>
+      </c>
+      <c r="I68" t="s">
         <v>152</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>150</v>
       </c>
-      <c r="J68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="K68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B69" t="s">
         <v>28</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>17</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F69" t="s">
-        <v>143</v>
-      </c>
       <c r="G69" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H69" t="s">
+        <v>147</v>
+      </c>
+      <c r="I69" t="s">
         <v>152</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>150</v>
       </c>
-      <c r="J69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="K69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" t="s">
         <v>28</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>18</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F70" t="s">
-        <v>143</v>
-      </c>
       <c r="G70" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H70" t="s">
+        <v>147</v>
+      </c>
+      <c r="I70" t="s">
         <v>153</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>154</v>
       </c>
-      <c r="J70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="K70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" t="s">
         <v>28</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>19</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F71" t="s">
-        <v>143</v>
-      </c>
       <c r="G71" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H71" t="s">
+        <v>147</v>
+      </c>
+      <c r="I71" t="s">
         <v>153</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>154</v>
       </c>
-      <c r="J71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="K71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B72" t="s">
         <v>28</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>20</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F72" t="s">
-        <v>143</v>
-      </c>
       <c r="G72" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H72" t="s">
+        <v>147</v>
+      </c>
+      <c r="I72" t="s">
         <v>153</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>154</v>
       </c>
-      <c r="J72" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="K72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B73" t="s">
         <v>41</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
       <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>137</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>138</v>
-      </c>
-      <c r="H73" t="s">
-        <v>95</v>
       </c>
       <c r="I73" t="s">
         <v>95</v>
       </c>
       <c r="J73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+      <c r="K73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
       <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>8</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>137</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>138</v>
-      </c>
-      <c r="H74" t="s">
-        <v>95</v>
       </c>
       <c r="I74" t="s">
         <v>95</v>
       </c>
       <c r="J74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="K74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" t="s">
         <v>42</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
       <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F75" t="s">
-        <v>143</v>
-      </c>
       <c r="G75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H75" t="s">
+        <v>147</v>
+      </c>
+      <c r="I75" t="s">
         <v>153</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>154</v>
       </c>
-      <c r="J75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="K75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" t="s">
         <v>43</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
       <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>137</v>
-      </c>
-      <c r="G76" t="s">
-        <v>138</v>
       </c>
       <c r="H76" t="s">
         <v>138</v>
@@ -3393,286 +4077,313 @@
         <v>138</v>
       </c>
       <c r="J76" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="K76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" t="s">
         <v>44</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
       <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
         <v>6</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>137</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>140</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>141</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>142</v>
       </c>
-      <c r="J77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="K77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" t="s">
         <v>44</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
       <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F78" t="s">
-        <v>143</v>
-      </c>
       <c r="G78" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H78" t="s">
+        <v>147</v>
+      </c>
+      <c r="I78" t="s">
         <v>156</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>154</v>
       </c>
-      <c r="J78" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="K78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" t="s">
         <v>44</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
       <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
         <v>14</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F79" t="s">
-        <v>143</v>
-      </c>
       <c r="G79" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H79" t="s">
+        <v>147</v>
+      </c>
+      <c r="I79" t="s">
         <v>156</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>154</v>
       </c>
-      <c r="J79" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="K79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" t="s">
         <v>45</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
       <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
         <v>6</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F80" t="s">
-        <v>143</v>
-      </c>
       <c r="G80" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H80" t="s">
+        <v>147</v>
+      </c>
+      <c r="I80" t="s">
         <v>157</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>150</v>
       </c>
-      <c r="J80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="K80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" t="s">
         <v>45</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
       <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
         <v>8</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F81" t="s">
-        <v>143</v>
-      </c>
       <c r="G81" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H81" t="s">
+        <v>147</v>
+      </c>
+      <c r="I81" t="s">
         <v>157</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>150</v>
       </c>
-      <c r="J81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="K81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" t="s">
         <v>45</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
       <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
         <v>14</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F82" t="s">
-        <v>143</v>
-      </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H82" t="s">
+        <v>147</v>
+      </c>
+      <c r="I82" t="s">
         <v>157</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>150</v>
       </c>
-      <c r="J82" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="K82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" t="s">
         <v>45</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
       <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
         <v>15</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F83" t="s">
-        <v>143</v>
-      </c>
       <c r="G83" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H83" t="s">
+        <v>147</v>
+      </c>
+      <c r="I83" t="s">
         <v>157</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>150</v>
       </c>
-      <c r="J83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="K83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" t="s">
         <v>46</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
       <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
         <v>6</v>
       </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F84" t="s">
-        <v>143</v>
-      </c>
       <c r="G84" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H84" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="I84" t="s">
         <v>168</v>
       </c>
       <c r="J84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="K84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" t="s">
         <v>46</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
       <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
         <v>8</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>137</v>
-      </c>
-      <c r="G85" t="s">
-        <v>145</v>
       </c>
       <c r="H85" t="s">
         <v>145</v>
@@ -3681,158 +4392,173 @@
         <v>145</v>
       </c>
       <c r="J85" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+        <v>145</v>
+      </c>
+      <c r="K85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" t="s">
         <v>47</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
       <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F86" t="s">
-        <v>143</v>
-      </c>
       <c r="G86" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H86" t="s">
+        <v>147</v>
+      </c>
+      <c r="I86" t="s">
         <v>153</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>154</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" t="s">
         <v>47</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
       <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F87" t="s">
-        <v>143</v>
-      </c>
       <c r="G87" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H87" t="s">
+        <v>147</v>
+      </c>
+      <c r="I87" t="s">
         <v>153</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>154</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" t="s">
         <v>48</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
       <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
         <v>6</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F88" t="s">
-        <v>143</v>
-      </c>
       <c r="G88" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H88" t="s">
+        <v>147</v>
+      </c>
+      <c r="I88" t="s">
         <v>152</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>150</v>
       </c>
-      <c r="J88" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="K88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" t="s">
         <v>49</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
       <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
         <v>6</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F89" t="s">
-        <v>143</v>
-      </c>
       <c r="G89" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H89" t="s">
+        <v>147</v>
+      </c>
+      <c r="I89" t="s">
         <v>153</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>154</v>
       </c>
-      <c r="J89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="K89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90" t="s">
         <v>50</v>
       </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
       <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
         <v>6</v>
       </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>137</v>
-      </c>
-      <c r="G90" t="s">
-        <v>138</v>
       </c>
       <c r="H90" t="s">
         <v>138</v>
@@ -3841,126 +4567,138 @@
         <v>138</v>
       </c>
       <c r="J90" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+        <v>138</v>
+      </c>
+      <c r="K90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" t="s">
         <v>50</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
       <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
         <v>8</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>137</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>140</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>141</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>142</v>
       </c>
-      <c r="J91" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="K91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" t="s">
         <v>50</v>
       </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
       <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
         <v>14</v>
       </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>137</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>140</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>141</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>142</v>
       </c>
-      <c r="J92" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="K92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" t="s">
         <v>50</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
       <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
         <v>15</v>
       </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>137</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>140</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>141</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>142</v>
       </c>
-      <c r="J93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="K93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" t="s">
         <v>50</v>
       </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
       <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
         <v>16</v>
       </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>137</v>
-      </c>
-      <c r="G94" t="s">
-        <v>138</v>
       </c>
       <c r="H94" t="s">
         <v>138</v>
@@ -3969,30 +4707,33 @@
         <v>138</v>
       </c>
       <c r="J94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+        <v>138</v>
+      </c>
+      <c r="K94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" t="s">
         <v>51</v>
       </c>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
       <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
         <v>6</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>137</v>
-      </c>
-      <c r="G95" t="s">
-        <v>138</v>
       </c>
       <c r="H95" t="s">
         <v>138</v>
@@ -4001,1150 +4742,1258 @@
         <v>138</v>
       </c>
       <c r="J95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+        <v>138</v>
+      </c>
+      <c r="K95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" t="s">
         <v>52</v>
       </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
       <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
         <v>6</v>
       </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>137</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>140</v>
-      </c>
-      <c r="H96" t="s">
-        <v>95</v>
       </c>
       <c r="I96" t="s">
         <v>95</v>
       </c>
       <c r="J96" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="K96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="B97" t="s">
-        <v>5</v>
-      </c>
       <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
         <v>6</v>
       </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F97" t="s">
-        <v>143</v>
-      </c>
       <c r="G97" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H97" t="s">
+        <v>147</v>
+      </c>
+      <c r="I97" t="s">
         <v>80</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>154</v>
       </c>
-      <c r="J97" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="K97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" t="s">
         <v>53</v>
       </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
       <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
         <v>8</v>
       </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F98" t="s">
-        <v>143</v>
-      </c>
       <c r="G98" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H98" t="s">
+        <v>147</v>
+      </c>
+      <c r="I98" t="s">
         <v>80</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>154</v>
       </c>
-      <c r="J98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="K98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B99" t="s">
         <v>53</v>
       </c>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
       <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
         <v>14</v>
       </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F99" t="s">
-        <v>143</v>
-      </c>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H99" t="s">
+        <v>147</v>
+      </c>
+      <c r="I99" t="s">
         <v>80</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>154</v>
       </c>
-      <c r="J99" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="K99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B100" t="s">
         <v>53</v>
       </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
       <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
         <v>15</v>
       </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F100" t="s">
-        <v>143</v>
-      </c>
       <c r="G100" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H100" t="s">
+        <v>147</v>
+      </c>
+      <c r="I100" t="s">
         <v>80</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>154</v>
       </c>
-      <c r="J100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="K100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" t="s">
         <v>53</v>
       </c>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
       <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
         <v>16</v>
       </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F101" t="s">
-        <v>143</v>
-      </c>
       <c r="G101" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H101" t="s">
+        <v>147</v>
+      </c>
+      <c r="I101" t="s">
         <v>80</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>154</v>
       </c>
-      <c r="J101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="K101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" t="s">
         <v>53</v>
       </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
       <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
         <v>17</v>
       </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F102" t="s">
-        <v>143</v>
-      </c>
       <c r="G102" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H102" t="s">
+        <v>147</v>
+      </c>
+      <c r="I102" t="s">
         <v>80</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>154</v>
       </c>
-      <c r="J102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="K102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" t="s">
         <v>53</v>
       </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
       <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
         <v>18</v>
       </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F103" t="s">
-        <v>143</v>
-      </c>
       <c r="G103" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H103" t="s">
+        <v>147</v>
+      </c>
+      <c r="I103" t="s">
         <v>80</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>154</v>
       </c>
-      <c r="J103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="K103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B104" t="s">
         <v>53</v>
       </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
       <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
         <v>19</v>
       </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F104" t="s">
-        <v>143</v>
-      </c>
       <c r="G104" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H104" t="s">
+        <v>147</v>
+      </c>
+      <c r="I104" t="s">
         <v>80</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>154</v>
       </c>
-      <c r="J104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="K104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B105" t="s">
         <v>54</v>
       </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
       <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
         <v>6</v>
       </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F105" t="s">
-        <v>143</v>
-      </c>
       <c r="G105" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H105" t="s">
+        <v>147</v>
+      </c>
+      <c r="I105" t="s">
         <v>80</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>154</v>
       </c>
-      <c r="J105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="K105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" t="s">
         <v>54</v>
       </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
       <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
         <v>8</v>
       </c>
-      <c r="D106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F106" t="s">
-        <v>143</v>
-      </c>
       <c r="G106" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H106" t="s">
+        <v>147</v>
+      </c>
+      <c r="I106" t="s">
         <v>80</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>154</v>
       </c>
-      <c r="J106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="K106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B107" t="s">
         <v>54</v>
       </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
       <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F107" t="s">
-        <v>143</v>
-      </c>
       <c r="G107" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H107" t="s">
+        <v>147</v>
+      </c>
+      <c r="I107" t="s">
         <v>80</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>154</v>
       </c>
-      <c r="J107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="K107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B108" t="s">
         <v>55</v>
       </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
       <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
         <v>6</v>
       </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>137</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>140</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>141</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>142</v>
       </c>
-      <c r="J108" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="K108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B109" t="s">
         <v>55</v>
       </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
       <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
         <v>8</v>
       </c>
-      <c r="D109" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>137</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>140</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>141</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>142</v>
       </c>
-      <c r="J109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="K109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B110" t="s">
         <v>56</v>
       </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
       <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
         <v>6</v>
       </c>
-      <c r="D110" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F110" t="s">
-        <v>143</v>
-      </c>
       <c r="G110" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H110" t="s">
+        <v>147</v>
+      </c>
+      <c r="I110" t="s">
         <v>116</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>162</v>
       </c>
-      <c r="J110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="K110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" t="s">
         <v>56</v>
       </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
       <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
         <v>8</v>
       </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F111" t="s">
-        <v>143</v>
-      </c>
       <c r="G111" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H111" t="s">
+        <v>147</v>
+      </c>
+      <c r="I111" t="s">
         <v>161</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>162</v>
       </c>
-      <c r="J111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="K111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B112" t="s">
         <v>56</v>
       </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
       <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
         <v>14</v>
       </c>
-      <c r="D112" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F112" t="s">
-        <v>143</v>
-      </c>
       <c r="G112" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H112" t="s">
+        <v>147</v>
+      </c>
+      <c r="I112" t="s">
         <v>161</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>162</v>
       </c>
-      <c r="J112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="K112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113" t="s">
         <v>56</v>
       </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
       <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
         <v>15</v>
       </c>
-      <c r="D113" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F113" t="s">
-        <v>143</v>
-      </c>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H113" t="s">
+        <v>147</v>
+      </c>
+      <c r="I113" t="s">
         <v>161</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>162</v>
       </c>
-      <c r="J113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="K113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B114" t="s">
         <v>57</v>
       </c>
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
       <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
         <v>6</v>
       </c>
-      <c r="D114" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F114" t="s">
-        <v>143</v>
-      </c>
       <c r="G114" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H114" t="s">
+        <v>147</v>
+      </c>
+      <c r="I114" t="s">
         <v>149</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>150</v>
       </c>
-      <c r="J114" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="K114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B115" t="s">
         <v>57</v>
       </c>
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
       <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
         <v>8</v>
       </c>
-      <c r="D115" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F115" t="s">
-        <v>143</v>
-      </c>
       <c r="G115" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I115" t="s">
         <v>149</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>150</v>
       </c>
-      <c r="J115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="K115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B116" t="s">
         <v>58</v>
       </c>
-      <c r="B116" t="s">
-        <v>5</v>
-      </c>
       <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
         <v>6</v>
       </c>
-      <c r="D116" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F116" t="s">
-        <v>143</v>
-      </c>
       <c r="G116" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H116" t="s">
+        <v>147</v>
+      </c>
+      <c r="I116" t="s">
         <v>149</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>150</v>
       </c>
-      <c r="J116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="K116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B117" t="s">
         <v>58</v>
       </c>
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
       <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
         <v>8</v>
       </c>
-      <c r="D117" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F117" t="s">
-        <v>143</v>
-      </c>
       <c r="G117" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H117" t="s">
+        <v>147</v>
+      </c>
+      <c r="I117" t="s">
         <v>149</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>150</v>
       </c>
-      <c r="J117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="K117" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B118" t="s">
         <v>58</v>
       </c>
-      <c r="B118" t="s">
-        <v>5</v>
-      </c>
       <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
         <v>14</v>
       </c>
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F118" t="s">
-        <v>143</v>
-      </c>
       <c r="G118" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H118" t="s">
+        <v>147</v>
+      </c>
+      <c r="I118" t="s">
         <v>149</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>150</v>
       </c>
-      <c r="J118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="K118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B119" t="s">
         <v>58</v>
       </c>
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
       <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
         <v>15</v>
       </c>
-      <c r="D119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F119" t="s">
-        <v>143</v>
-      </c>
       <c r="G119" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H119" t="s">
+        <v>147</v>
+      </c>
+      <c r="I119" t="s">
         <v>149</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>150</v>
       </c>
-      <c r="J119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="K119" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120" t="s">
         <v>58</v>
       </c>
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
       <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
         <v>16</v>
       </c>
-      <c r="D120" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F120" t="s">
-        <v>143</v>
-      </c>
       <c r="G120" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H120" t="s">
+        <v>147</v>
+      </c>
+      <c r="I120" t="s">
         <v>149</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>150</v>
       </c>
-      <c r="J120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="K120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B121" t="s">
         <v>59</v>
       </c>
-      <c r="B121" t="s">
-        <v>5</v>
-      </c>
       <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
         <v>6</v>
       </c>
-      <c r="D121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F121" t="s">
-        <v>143</v>
-      </c>
       <c r="G121" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H121" t="s">
+        <v>147</v>
+      </c>
+      <c r="I121" t="s">
         <v>152</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>150</v>
       </c>
-      <c r="J121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="K121" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B122" t="s">
         <v>60</v>
       </c>
-      <c r="B122" t="s">
-        <v>5</v>
-      </c>
       <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
         <v>6</v>
       </c>
-      <c r="D122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F122" t="s">
-        <v>143</v>
-      </c>
       <c r="G122" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H122" t="s">
+        <v>147</v>
+      </c>
+      <c r="I122" t="s">
         <v>153</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>154</v>
       </c>
-      <c r="J122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="K122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B123" t="s">
         <v>61</v>
       </c>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
       <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
         <v>6</v>
       </c>
-      <c r="D123" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F123" t="s">
-        <v>143</v>
-      </c>
       <c r="G123" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H123" t="s">
+        <v>147</v>
+      </c>
+      <c r="I123" t="s">
         <v>153</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>154</v>
       </c>
-      <c r="J123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="K123" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B124" t="s">
         <v>61</v>
       </c>
-      <c r="B124" t="s">
-        <v>5</v>
-      </c>
       <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
         <v>8</v>
       </c>
-      <c r="D124" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>137</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>140</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>144</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>142</v>
       </c>
-      <c r="J124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="K124" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B125" t="s">
         <v>61</v>
       </c>
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
       <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
         <v>14</v>
       </c>
-      <c r="D125" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>137</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>140</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>144</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>142</v>
       </c>
-      <c r="J125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="K125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B126" t="s">
         <v>61</v>
       </c>
-      <c r="B126" t="s">
-        <v>5</v>
-      </c>
       <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
         <v>15</v>
       </c>
-      <c r="D126" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>137</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>140</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>144</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>142</v>
       </c>
-      <c r="J126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="K126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B127" t="s">
         <v>61</v>
       </c>
-      <c r="B127" t="s">
-        <v>5</v>
-      </c>
       <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
         <v>16</v>
       </c>
-      <c r="D127" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>137</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>140</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>144</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>142</v>
       </c>
-      <c r="J127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="K127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128" t="s">
         <v>61</v>
       </c>
-      <c r="B128" t="s">
-        <v>5</v>
-      </c>
       <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
         <v>17</v>
       </c>
-      <c r="D128" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>137</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>140</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>144</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>142</v>
       </c>
-      <c r="J128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="K128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B129" t="s">
         <v>61</v>
       </c>
-      <c r="B129" t="s">
-        <v>5</v>
-      </c>
       <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
         <v>18</v>
       </c>
-      <c r="D129" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>137</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>140</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>144</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>142</v>
       </c>
-      <c r="J129" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="K129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B130" t="s">
         <v>61</v>
       </c>
-      <c r="B130" t="s">
-        <v>5</v>
-      </c>
       <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
         <v>19</v>
       </c>
-      <c r="D130" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>137</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>140</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>144</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>142</v>
       </c>
-      <c r="J130" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="K130" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B131" t="s">
         <v>62</v>
       </c>
-      <c r="B131" t="s">
-        <v>5</v>
-      </c>
       <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
         <v>6</v>
       </c>
-      <c r="D131" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>137</v>
-      </c>
-      <c r="G131" t="s">
-        <v>145</v>
       </c>
       <c r="H131" t="s">
         <v>145</v>
@@ -5153,30 +6002,33 @@
         <v>145</v>
       </c>
       <c r="J131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+        <v>145</v>
+      </c>
+      <c r="K131" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B132" t="s">
         <v>62</v>
       </c>
-      <c r="B132" t="s">
-        <v>5</v>
-      </c>
       <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
         <v>8</v>
       </c>
-      <c r="D132" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>137</v>
-      </c>
-      <c r="G132" t="s">
-        <v>145</v>
       </c>
       <c r="H132" t="s">
         <v>145</v>
@@ -5185,30 +6037,33 @@
         <v>145</v>
       </c>
       <c r="J132" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="K132" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B133" t="s">
         <v>62</v>
       </c>
-      <c r="B133" t="s">
-        <v>5</v>
-      </c>
       <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
         <v>14</v>
       </c>
-      <c r="D133" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>137</v>
-      </c>
-      <c r="G133" t="s">
-        <v>145</v>
       </c>
       <c r="H133" t="s">
         <v>145</v>
@@ -5217,30 +6072,33 @@
         <v>145</v>
       </c>
       <c r="J133" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="K133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B134" t="s">
         <v>62</v>
       </c>
-      <c r="B134" t="s">
-        <v>5</v>
-      </c>
       <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
         <v>15</v>
       </c>
-      <c r="D134" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>137</v>
-      </c>
-      <c r="G134" t="s">
-        <v>145</v>
       </c>
       <c r="H134" t="s">
         <v>145</v>
@@ -5249,30 +6107,33 @@
         <v>145</v>
       </c>
       <c r="J134" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+        <v>145</v>
+      </c>
+      <c r="K134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B135" t="s">
         <v>62</v>
       </c>
-      <c r="B135" t="s">
-        <v>5</v>
-      </c>
       <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
         <v>16</v>
       </c>
-      <c r="D135" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>137</v>
-      </c>
-      <c r="G135" t="s">
-        <v>145</v>
       </c>
       <c r="H135" t="s">
         <v>145</v>
@@ -5281,30 +6142,33 @@
         <v>145</v>
       </c>
       <c r="J135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+        <v>145</v>
+      </c>
+      <c r="K135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B136" t="s">
         <v>62</v>
       </c>
-      <c r="B136" t="s">
-        <v>5</v>
-      </c>
       <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
         <v>17</v>
       </c>
-      <c r="D136" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>137</v>
-      </c>
-      <c r="G136" t="s">
-        <v>145</v>
       </c>
       <c r="H136" t="s">
         <v>145</v>
@@ -5313,30 +6177,33 @@
         <v>145</v>
       </c>
       <c r="J136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+        <v>145</v>
+      </c>
+      <c r="K136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B137" t="s">
         <v>62</v>
       </c>
-      <c r="B137" t="s">
-        <v>5</v>
-      </c>
       <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
         <v>18</v>
       </c>
-      <c r="D137" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>137</v>
-      </c>
-      <c r="G137" t="s">
-        <v>145</v>
       </c>
       <c r="H137" t="s">
         <v>145</v>
@@ -5345,30 +6212,33 @@
         <v>145</v>
       </c>
       <c r="J137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="K137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B138" t="s">
         <v>62</v>
       </c>
-      <c r="B138" t="s">
-        <v>5</v>
-      </c>
       <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s">
         <v>19</v>
       </c>
-      <c r="D138" t="s">
-        <v>7</v>
-      </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>137</v>
-      </c>
-      <c r="G138" t="s">
-        <v>145</v>
       </c>
       <c r="H138" t="s">
         <v>145</v>
@@ -5377,30 +6247,33 @@
         <v>145</v>
       </c>
       <c r="J138" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="K138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B139" t="s">
         <v>62</v>
       </c>
-      <c r="B139" t="s">
-        <v>5</v>
-      </c>
       <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
         <v>20</v>
       </c>
-      <c r="D139" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>137</v>
-      </c>
-      <c r="G139" t="s">
-        <v>145</v>
       </c>
       <c r="H139" t="s">
         <v>145</v>
@@ -5409,454 +6282,499 @@
         <v>145</v>
       </c>
       <c r="J139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="K139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B140" t="s">
         <v>63</v>
       </c>
-      <c r="B140" t="s">
-        <v>5</v>
-      </c>
       <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
         <v>6</v>
       </c>
-      <c r="D140" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F140" t="s">
-        <v>143</v>
-      </c>
       <c r="G140" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H140" t="s">
+        <v>147</v>
+      </c>
+      <c r="I140" t="s">
         <v>158</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>154</v>
       </c>
-      <c r="J140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="K140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B141" t="s">
         <v>63</v>
       </c>
-      <c r="B141" t="s">
-        <v>5</v>
-      </c>
       <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
         <v>8</v>
       </c>
-      <c r="D141" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F141" t="s">
-        <v>143</v>
-      </c>
       <c r="G141" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H141" t="s">
+        <v>147</v>
+      </c>
+      <c r="I141" t="s">
         <v>153</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>154</v>
       </c>
-      <c r="J141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="K141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B142" t="s">
         <v>63</v>
       </c>
-      <c r="B142" t="s">
-        <v>5</v>
-      </c>
       <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" t="s">
         <v>14</v>
       </c>
-      <c r="D142" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F142" t="s">
-        <v>143</v>
-      </c>
       <c r="G142" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H142" t="s">
+        <v>147</v>
+      </c>
+      <c r="I142" t="s">
         <v>153</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>154</v>
       </c>
-      <c r="J142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="K142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B143" t="s">
         <v>63</v>
       </c>
-      <c r="B143" t="s">
-        <v>5</v>
-      </c>
       <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
         <v>15</v>
       </c>
-      <c r="D143" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F143" t="s">
-        <v>143</v>
-      </c>
       <c r="G143" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H143" t="s">
+        <v>147</v>
+      </c>
+      <c r="I143" t="s">
         <v>153</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>154</v>
       </c>
-      <c r="J143" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="K143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B144" t="s">
         <v>63</v>
       </c>
-      <c r="B144" t="s">
-        <v>5</v>
-      </c>
       <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
         <v>16</v>
       </c>
-      <c r="D144" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F144" t="s">
-        <v>143</v>
-      </c>
       <c r="G144" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H144" t="s">
+        <v>147</v>
+      </c>
+      <c r="I144" t="s">
         <v>153</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>154</v>
       </c>
-      <c r="J144" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="K144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B145" t="s">
         <v>63</v>
       </c>
-      <c r="B145" t="s">
-        <v>5</v>
-      </c>
       <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
         <v>17</v>
       </c>
-      <c r="D145" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F145" t="s">
-        <v>143</v>
-      </c>
       <c r="G145" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H145" t="s">
+        <v>147</v>
+      </c>
+      <c r="I145" t="s">
         <v>159</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>160</v>
       </c>
-      <c r="J145" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="K145" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B146" t="s">
         <v>63</v>
       </c>
-      <c r="B146" t="s">
-        <v>5</v>
-      </c>
       <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" t="s">
         <v>18</v>
       </c>
-      <c r="D146" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F146" t="s">
-        <v>143</v>
-      </c>
       <c r="G146" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H146" t="s">
+        <v>147</v>
+      </c>
+      <c r="I146" t="s">
         <v>158</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>154</v>
       </c>
-      <c r="J146" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="K146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" t="s">
         <v>64</v>
       </c>
-      <c r="B147" t="s">
-        <v>5</v>
-      </c>
       <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
         <v>6</v>
       </c>
-      <c r="D147" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F147" t="s">
-        <v>143</v>
-      </c>
       <c r="G147" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H147" t="s">
+        <v>147</v>
+      </c>
+      <c r="I147" t="s">
         <v>156</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>154</v>
       </c>
-      <c r="J147" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="K147" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B148" t="s">
         <v>65</v>
       </c>
-      <c r="B148" t="s">
-        <v>5</v>
-      </c>
       <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
         <v>6</v>
       </c>
-      <c r="D148" t="s">
-        <v>7</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F148" t="s">
-        <v>143</v>
-      </c>
       <c r="G148" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H148" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I148" t="s">
         <v>150</v>
       </c>
       <c r="J148" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="K148" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B149" t="s">
         <v>65</v>
       </c>
-      <c r="B149" t="s">
-        <v>5</v>
-      </c>
       <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
         <v>8</v>
       </c>
-      <c r="D149" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>137</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>145</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>146</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>145</v>
       </c>
-      <c r="J149" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="K149" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B150" t="s">
         <v>65</v>
       </c>
-      <c r="B150" t="s">
-        <v>5</v>
-      </c>
       <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
         <v>14</v>
       </c>
-      <c r="D150" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>137</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>145</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>146</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>145</v>
       </c>
-      <c r="J150" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="K150" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B151" t="s">
         <v>66</v>
       </c>
-      <c r="B151" t="s">
-        <v>5</v>
-      </c>
       <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
         <v>6</v>
       </c>
-      <c r="D151" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F151" t="s">
-        <v>143</v>
-      </c>
       <c r="G151" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H151" t="s">
+        <v>147</v>
+      </c>
+      <c r="I151" t="s">
         <v>141</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>169</v>
       </c>
-      <c r="J151" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="K151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B152" t="s">
         <v>67</v>
       </c>
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
       <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s">
         <v>6</v>
       </c>
-      <c r="D152" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F152" t="s">
-        <v>143</v>
-      </c>
       <c r="G152" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H152" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I152" t="s">
         <v>150</v>
       </c>
       <c r="J152" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+      <c r="K152" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B153" t="s">
         <v>67</v>
       </c>
-      <c r="B153" t="s">
-        <v>5</v>
-      </c>
       <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
         <v>8</v>
       </c>
-      <c r="D153" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F153" t="s">
-        <v>143</v>
-      </c>
       <c r="G153" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H153" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I153" t="s">
         <v>150</v>
       </c>
       <c r="J153" t="s">
+        <v>150</v>
+      </c>
+      <c r="K153" t="s">
         <v>139</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79654A1C-D40F-2D4E-89E5-08BF485123C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B237E4D6-5367-504F-91E6-A8620B60274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="324">
   <si>
     <t>DOI</t>
   </si>
@@ -1002,6 +1002,9 @@
   </si>
   <si>
     <t>10.1126:scitranslmed.adi9867_log_fig2</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1411,15 +1414,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A128" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F101" zoomScale="184" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="37.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2397,7 +2400,7 @@
         <v>164</v>
       </c>
       <c r="J28" t="s">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="K28" t="s">
         <v>139</v>
@@ -4357,7 +4360,7 @@
         <v>168</v>
       </c>
       <c r="J84" t="s">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="K84" t="s">
         <v>139</v>
@@ -5264,7 +5267,7 @@
         <v>147</v>
       </c>
       <c r="I110" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="J110" t="s">
         <v>162</v>

--- a/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B237E4D6-5367-504F-91E6-A8620B60274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF1C632-16EE-914B-8068-32B1EE10B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1414,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F101" zoomScale="184" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView tabSelected="1" topLeftCell="F127" zoomScale="184" workbookViewId="0">
+      <selection activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1522,10 +1522,10 @@
         <v>140</v>
       </c>
       <c r="I3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" t="s">
         <v>141</v>
-      </c>
-      <c r="J3" t="s">
-        <v>142</v>
       </c>
       <c r="K3" t="s">
         <v>139</v>
@@ -2012,10 +2012,10 @@
         <v>140</v>
       </c>
       <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
         <v>144</v>
-      </c>
-      <c r="J17" t="s">
-        <v>142</v>
       </c>
       <c r="K17" t="s">
         <v>139</v>
@@ -2047,10 +2047,10 @@
         <v>140</v>
       </c>
       <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
         <v>144</v>
-      </c>
-      <c r="J18" t="s">
-        <v>142</v>
       </c>
       <c r="K18" t="s">
         <v>139</v>
@@ -2502,10 +2502,10 @@
         <v>140</v>
       </c>
       <c r="I31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" t="s">
         <v>144</v>
-      </c>
-      <c r="J31" t="s">
-        <v>142</v>
       </c>
       <c r="K31" t="s">
         <v>139</v>
@@ -2712,10 +2712,10 @@
         <v>140</v>
       </c>
       <c r="I37" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37" t="s">
         <v>144</v>
-      </c>
-      <c r="J37" t="s">
-        <v>142</v>
       </c>
       <c r="K37" t="s">
         <v>139</v>
@@ -4112,10 +4112,10 @@
         <v>140</v>
       </c>
       <c r="I77" t="s">
+        <v>142</v>
+      </c>
+      <c r="J77" t="s">
         <v>141</v>
-      </c>
-      <c r="J77" t="s">
-        <v>142</v>
       </c>
       <c r="K77" t="s">
         <v>139</v>
@@ -4602,10 +4602,10 @@
         <v>140</v>
       </c>
       <c r="I91" t="s">
+        <v>142</v>
+      </c>
+      <c r="J91" t="s">
         <v>141</v>
-      </c>
-      <c r="J91" t="s">
-        <v>142</v>
       </c>
       <c r="K91" t="s">
         <v>139</v>
@@ -4637,10 +4637,10 @@
         <v>140</v>
       </c>
       <c r="I92" t="s">
+        <v>142</v>
+      </c>
+      <c r="J92" t="s">
         <v>141</v>
-      </c>
-      <c r="J92" t="s">
-        <v>142</v>
       </c>
       <c r="K92" t="s">
         <v>139</v>
@@ -4672,10 +4672,10 @@
         <v>140</v>
       </c>
       <c r="I93" t="s">
+        <v>142</v>
+      </c>
+      <c r="J93" t="s">
         <v>141</v>
-      </c>
-      <c r="J93" t="s">
-        <v>142</v>
       </c>
       <c r="K93" t="s">
         <v>139</v>
@@ -5197,10 +5197,10 @@
         <v>140</v>
       </c>
       <c r="I108" t="s">
+        <v>142</v>
+      </c>
+      <c r="J108" t="s">
         <v>141</v>
-      </c>
-      <c r="J108" t="s">
-        <v>142</v>
       </c>
       <c r="K108" t="s">
         <v>139</v>
@@ -5232,10 +5232,10 @@
         <v>140</v>
       </c>
       <c r="I109" t="s">
+        <v>142</v>
+      </c>
+      <c r="J109" t="s">
         <v>141</v>
-      </c>
-      <c r="J109" t="s">
-        <v>142</v>
       </c>
       <c r="K109" t="s">
         <v>139</v>
@@ -5757,10 +5757,10 @@
         <v>140</v>
       </c>
       <c r="I124" t="s">
+        <v>142</v>
+      </c>
+      <c r="J124" t="s">
         <v>144</v>
-      </c>
-      <c r="J124" t="s">
-        <v>142</v>
       </c>
       <c r="K124" t="s">
         <v>139</v>
@@ -5792,10 +5792,10 @@
         <v>140</v>
       </c>
       <c r="I125" t="s">
+        <v>142</v>
+      </c>
+      <c r="J125" t="s">
         <v>144</v>
-      </c>
-      <c r="J125" t="s">
-        <v>142</v>
       </c>
       <c r="K125" t="s">
         <v>139</v>
@@ -5827,10 +5827,10 @@
         <v>140</v>
       </c>
       <c r="I126" t="s">
+        <v>142</v>
+      </c>
+      <c r="J126" t="s">
         <v>144</v>
-      </c>
-      <c r="J126" t="s">
-        <v>142</v>
       </c>
       <c r="K126" t="s">
         <v>139</v>
@@ -5862,10 +5862,10 @@
         <v>140</v>
       </c>
       <c r="I127" t="s">
+        <v>142</v>
+      </c>
+      <c r="J127" t="s">
         <v>144</v>
-      </c>
-      <c r="J127" t="s">
-        <v>142</v>
       </c>
       <c r="K127" t="s">
         <v>139</v>
@@ -5897,10 +5897,10 @@
         <v>140</v>
       </c>
       <c r="I128" t="s">
+        <v>142</v>
+      </c>
+      <c r="J128" t="s">
         <v>144</v>
-      </c>
-      <c r="J128" t="s">
-        <v>142</v>
       </c>
       <c r="K128" t="s">
         <v>139</v>
@@ -5932,10 +5932,10 @@
         <v>140</v>
       </c>
       <c r="I129" t="s">
+        <v>142</v>
+      </c>
+      <c r="J129" t="s">
         <v>144</v>
-      </c>
-      <c r="J129" t="s">
-        <v>142</v>
       </c>
       <c r="K129" t="s">
         <v>139</v>
@@ -5967,10 +5967,10 @@
         <v>140</v>
       </c>
       <c r="I130" t="s">
+        <v>142</v>
+      </c>
+      <c r="J130" t="s">
         <v>144</v>
-      </c>
-      <c r="J130" t="s">
-        <v>142</v>
       </c>
       <c r="K130" t="s">
         <v>139</v>
@@ -6702,10 +6702,10 @@
         <v>147</v>
       </c>
       <c r="I151" t="s">
+        <v>169</v>
+      </c>
+      <c r="J151" t="s">
         <v>141</v>
-      </c>
-      <c r="J151" t="s">
-        <v>169</v>
       </c>
       <c r="K151" t="s">
         <v>139</v>

--- a/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF1C632-16EE-914B-8068-32B1EE10B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E9883-C4A6-F043-851B-DE4DBBCA4123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="520" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="317">
   <si>
     <t>DOI</t>
   </si>
@@ -479,9 +479,6 @@
     <t>Measured value</t>
   </si>
   <si>
-    <t>Mass</t>
-  </si>
-  <si>
     <t>Cell count</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>Virus titer (pfu/tissue)</t>
   </si>
   <si>
-    <t>RNA count</t>
-  </si>
-  <si>
     <t>Titer</t>
   </si>
   <si>
@@ -509,12 +503,6 @@
     <t>Colony count</t>
   </si>
   <si>
-    <t>IC50</t>
-  </si>
-  <si>
-    <t>Equilibrium constant</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
@@ -524,24 +512,12 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>AUC</t>
-  </si>
-  <si>
-    <t>Signal</t>
-  </si>
-  <si>
-    <t>Protein concentration</t>
-  </si>
-  <si>
     <t>Rescue potency of trans. Activity</t>
   </si>
   <si>
     <t>Index</t>
   </si>
   <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>Radiance</t>
   </si>
   <si>
@@ -1005,6 +981,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Characteristic concentration</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F127" zoomScale="184" workbookViewId="0">
-      <selection activeCell="K151" sqref="K151"/>
+    <sheetView tabSelected="1" topLeftCell="E80" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I121" activeCellId="6" sqref="I46 I52:I55 I62:I63 I65 I68:I69 I88 I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1428,7 +1407,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1463,7 +1442,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1498,7 +1477,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1533,7 +1512,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1568,7 +1547,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1603,7 +1582,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1638,7 +1617,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1673,7 +1652,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1708,7 +1687,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1732,10 +1711,10 @@
         <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K9" t="s">
         <v>139</v>
@@ -1743,7 +1722,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1778,7 +1757,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1813,7 +1792,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1848,7 +1827,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1883,7 +1862,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1918,7 +1897,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1953,7 +1932,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1988,7 +1967,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -2023,7 +2002,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -2058,7 +2037,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2073,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
         <v>137</v>
@@ -2082,10 +2061,10 @@
         <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
         <v>139</v>
@@ -2093,7 +2072,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2108,7 +2087,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
         <v>137</v>
@@ -2117,10 +2096,10 @@
         <v>140</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K20" t="s">
         <v>139</v>
@@ -2128,7 +2107,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2143,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
         <v>137</v>
@@ -2152,10 +2131,10 @@
         <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s">
         <v>139</v>
@@ -2163,7 +2142,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2187,10 +2166,10 @@
         <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K22" t="s">
         <v>139</v>
@@ -2198,7 +2177,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2222,10 +2201,10 @@
         <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s">
         <v>139</v>
@@ -2233,7 +2212,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2257,10 +2236,10 @@
         <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K24" t="s">
         <v>139</v>
@@ -2268,7 +2247,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -2292,10 +2271,10 @@
         <v>147</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s">
         <v>139</v>
@@ -2303,7 +2282,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -2327,10 +2306,10 @@
         <v>147</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K26" t="s">
         <v>139</v>
@@ -2338,7 +2317,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -2362,10 +2341,10 @@
         <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s">
         <v>139</v>
@@ -2373,7 +2352,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -2397,10 +2376,10 @@
         <v>140</v>
       </c>
       <c r="I28" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="J28" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K28" t="s">
         <v>139</v>
@@ -2408,7 +2387,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -2432,10 +2411,10 @@
         <v>147</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K29" t="s">
         <v>139</v>
@@ -2443,7 +2422,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -2467,10 +2446,10 @@
         <v>147</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s">
         <v>139</v>
@@ -2478,7 +2457,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -2513,7 +2492,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -2537,10 +2516,10 @@
         <v>147</v>
       </c>
       <c r="I32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J32" t="s">
         <v>149</v>
-      </c>
-      <c r="J32" t="s">
-        <v>150</v>
       </c>
       <c r="K32" t="s">
         <v>139</v>
@@ -2548,7 +2527,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -2572,10 +2551,10 @@
         <v>147</v>
       </c>
       <c r="I33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" t="s">
         <v>149</v>
-      </c>
-      <c r="J33" t="s">
-        <v>150</v>
       </c>
       <c r="K33" t="s">
         <v>139</v>
@@ -2583,7 +2562,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -2607,10 +2586,10 @@
         <v>147</v>
       </c>
       <c r="I34" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" t="s">
         <v>149</v>
-      </c>
-      <c r="J34" t="s">
-        <v>150</v>
       </c>
       <c r="K34" t="s">
         <v>139</v>
@@ -2618,7 +2597,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -2642,10 +2621,10 @@
         <v>147</v>
       </c>
       <c r="I35" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" t="s">
         <v>149</v>
-      </c>
-      <c r="J35" t="s">
-        <v>150</v>
       </c>
       <c r="K35" t="s">
         <v>139</v>
@@ -2653,7 +2632,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -2677,10 +2656,10 @@
         <v>147</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K36" t="s">
         <v>139</v>
@@ -2688,7 +2667,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -2723,7 +2702,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -2747,10 +2726,10 @@
         <v>147</v>
       </c>
       <c r="I38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K38" t="s">
         <v>139</v>
@@ -2758,7 +2737,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -2782,10 +2761,10 @@
         <v>147</v>
       </c>
       <c r="I39" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" t="s">
         <v>149</v>
-      </c>
-      <c r="J39" t="s">
-        <v>150</v>
       </c>
       <c r="K39" t="s">
         <v>139</v>
@@ -2793,7 +2772,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -2817,10 +2796,10 @@
         <v>147</v>
       </c>
       <c r="I40" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" t="s">
         <v>149</v>
-      </c>
-      <c r="J40" t="s">
-        <v>150</v>
       </c>
       <c r="K40" t="s">
         <v>139</v>
@@ -2828,7 +2807,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -2852,10 +2831,10 @@
         <v>147</v>
       </c>
       <c r="I41" t="s">
+        <v>148</v>
+      </c>
+      <c r="J41" t="s">
         <v>149</v>
-      </c>
-      <c r="J41" t="s">
-        <v>150</v>
       </c>
       <c r="K41" t="s">
         <v>139</v>
@@ -2863,7 +2842,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -2887,10 +2866,10 @@
         <v>147</v>
       </c>
       <c r="I42" t="s">
+        <v>148</v>
+      </c>
+      <c r="J42" t="s">
         <v>149</v>
-      </c>
-      <c r="J42" t="s">
-        <v>150</v>
       </c>
       <c r="K42" t="s">
         <v>139</v>
@@ -2898,7 +2877,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -2922,10 +2901,10 @@
         <v>147</v>
       </c>
       <c r="I43" t="s">
+        <v>148</v>
+      </c>
+      <c r="J43" t="s">
         <v>149</v>
-      </c>
-      <c r="J43" t="s">
-        <v>150</v>
       </c>
       <c r="K43" t="s">
         <v>139</v>
@@ -2933,7 +2912,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -2957,10 +2936,10 @@
         <v>147</v>
       </c>
       <c r="I44" t="s">
+        <v>148</v>
+      </c>
+      <c r="J44" t="s">
         <v>149</v>
-      </c>
-      <c r="J44" t="s">
-        <v>150</v>
       </c>
       <c r="K44" t="s">
         <v>139</v>
@@ -2968,7 +2947,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -2992,10 +2971,10 @@
         <v>147</v>
       </c>
       <c r="I45" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" t="s">
         <v>149</v>
-      </c>
-      <c r="J45" t="s">
-        <v>150</v>
       </c>
       <c r="K45" t="s">
         <v>139</v>
@@ -3003,7 +2982,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -3027,10 +3006,10 @@
         <v>147</v>
       </c>
       <c r="I46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K46" t="s">
         <v>139</v>
@@ -3038,7 +3017,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
@@ -3053,19 +3032,19 @@
         <v>7</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" t="s">
         <v>151</v>
       </c>
-      <c r="G47" t="s">
-        <v>143</v>
-      </c>
-      <c r="H47" t="s">
-        <v>147</v>
-      </c>
-      <c r="I47" t="s">
-        <v>153</v>
-      </c>
       <c r="J47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K47" t="s">
         <v>139</v>
@@ -3073,7 +3052,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
@@ -3088,19 +3067,19 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" t="s">
         <v>151</v>
       </c>
-      <c r="G48" t="s">
-        <v>143</v>
-      </c>
-      <c r="H48" t="s">
-        <v>147</v>
-      </c>
-      <c r="I48" t="s">
-        <v>153</v>
-      </c>
       <c r="J48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K48" t="s">
         <v>139</v>
@@ -3108,7 +3087,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
@@ -3123,19 +3102,19 @@
         <v>7</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" t="s">
         <v>151</v>
       </c>
-      <c r="G49" t="s">
-        <v>143</v>
-      </c>
-      <c r="H49" t="s">
-        <v>147</v>
-      </c>
-      <c r="I49" t="s">
-        <v>153</v>
-      </c>
       <c r="J49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K49" t="s">
         <v>139</v>
@@ -3143,7 +3122,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -3158,19 +3137,19 @@
         <v>7</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" t="s">
         <v>151</v>
       </c>
-      <c r="G50" t="s">
-        <v>143</v>
-      </c>
-      <c r="H50" t="s">
-        <v>147</v>
-      </c>
-      <c r="I50" t="s">
-        <v>153</v>
-      </c>
       <c r="J50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K50" t="s">
         <v>139</v>
@@ -3178,7 +3157,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
@@ -3193,19 +3172,19 @@
         <v>7</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51" t="s">
         <v>151</v>
       </c>
-      <c r="G51" t="s">
-        <v>143</v>
-      </c>
-      <c r="H51" t="s">
-        <v>147</v>
-      </c>
-      <c r="I51" t="s">
-        <v>153</v>
-      </c>
       <c r="J51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K51" t="s">
         <v>139</v>
@@ -3213,7 +3192,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
@@ -3237,10 +3216,10 @@
         <v>147</v>
       </c>
       <c r="I52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K52" t="s">
         <v>139</v>
@@ -3248,7 +3227,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
@@ -3272,10 +3251,10 @@
         <v>147</v>
       </c>
       <c r="I53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K53" t="s">
         <v>139</v>
@@ -3283,7 +3262,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
@@ -3307,10 +3286,10 @@
         <v>147</v>
       </c>
       <c r="I54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K54" t="s">
         <v>139</v>
@@ -3318,7 +3297,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
@@ -3342,10 +3321,10 @@
         <v>147</v>
       </c>
       <c r="I55" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K55" t="s">
         <v>139</v>
@@ -3353,7 +3332,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
@@ -3377,10 +3356,10 @@
         <v>147</v>
       </c>
       <c r="I56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K56" t="s">
         <v>139</v>
@@ -3388,7 +3367,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
@@ -3412,10 +3391,10 @@
         <v>147</v>
       </c>
       <c r="I57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K57" t="s">
         <v>139</v>
@@ -3423,7 +3402,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B58" t="s">
         <v>28</v>
@@ -3447,10 +3426,10 @@
         <v>147</v>
       </c>
       <c r="I58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K58" t="s">
         <v>139</v>
@@ -3458,7 +3437,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
@@ -3482,10 +3461,10 @@
         <v>147</v>
       </c>
       <c r="I59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K59" t="s">
         <v>139</v>
@@ -3493,7 +3472,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
         <v>28</v>
@@ -3517,10 +3496,10 @@
         <v>147</v>
       </c>
       <c r="I60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K60" t="s">
         <v>139</v>
@@ -3528,7 +3507,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
@@ -3552,10 +3531,10 @@
         <v>147</v>
       </c>
       <c r="I61" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K61" t="s">
         <v>139</v>
@@ -3563,7 +3542,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B62" t="s">
         <v>28</v>
@@ -3587,10 +3566,10 @@
         <v>147</v>
       </c>
       <c r="I62" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K62" t="s">
         <v>139</v>
@@ -3598,7 +3577,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B63" t="s">
         <v>28</v>
@@ -3622,10 +3601,10 @@
         <v>147</v>
       </c>
       <c r="I63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K63" t="s">
         <v>139</v>
@@ -3633,7 +3612,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B64" t="s">
         <v>28</v>
@@ -3657,10 +3636,10 @@
         <v>147</v>
       </c>
       <c r="I64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K64" t="s">
         <v>139</v>
@@ -3668,7 +3647,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B65" t="s">
         <v>28</v>
@@ -3692,10 +3671,10 @@
         <v>147</v>
       </c>
       <c r="I65" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K65" t="s">
         <v>139</v>
@@ -3703,7 +3682,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
@@ -3727,10 +3706,10 @@
         <v>147</v>
       </c>
       <c r="I66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K66" t="s">
         <v>139</v>
@@ -3738,7 +3717,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
         <v>28</v>
@@ -3762,10 +3741,10 @@
         <v>147</v>
       </c>
       <c r="I67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K67" t="s">
         <v>139</v>
@@ -3773,7 +3752,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B68" t="s">
         <v>28</v>
@@ -3797,10 +3776,10 @@
         <v>147</v>
       </c>
       <c r="I68" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K68" t="s">
         <v>139</v>
@@ -3808,7 +3787,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
         <v>28</v>
@@ -3832,10 +3811,10 @@
         <v>147</v>
       </c>
       <c r="I69" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K69" t="s">
         <v>139</v>
@@ -3843,7 +3822,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B70" t="s">
         <v>28</v>
@@ -3867,10 +3846,10 @@
         <v>147</v>
       </c>
       <c r="I70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K70" t="s">
         <v>139</v>
@@ -3878,7 +3857,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B71" t="s">
         <v>28</v>
@@ -3902,10 +3881,10 @@
         <v>147</v>
       </c>
       <c r="I71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K71" t="s">
         <v>139</v>
@@ -3913,7 +3892,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B72" t="s">
         <v>28</v>
@@ -3937,10 +3916,10 @@
         <v>147</v>
       </c>
       <c r="I72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K72" t="s">
         <v>139</v>
@@ -3948,7 +3927,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
@@ -3972,10 +3951,10 @@
         <v>138</v>
       </c>
       <c r="I73" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="J73" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="K73" t="s">
         <v>139</v>
@@ -3983,7 +3962,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -4007,10 +3986,10 @@
         <v>138</v>
       </c>
       <c r="I74" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="J74" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="K74" t="s">
         <v>139</v>
@@ -4018,7 +3997,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -4033,7 +4012,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G75" t="s">
         <v>143</v>
@@ -4042,10 +4021,10 @@
         <v>147</v>
       </c>
       <c r="I75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K75" t="s">
         <v>139</v>
@@ -4053,7 +4032,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s">
         <v>43</v>
@@ -4088,7 +4067,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
@@ -4123,7 +4102,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -4147,10 +4126,10 @@
         <v>147</v>
       </c>
       <c r="I78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K78" t="s">
         <v>139</v>
@@ -4158,7 +4137,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B79" t="s">
         <v>44</v>
@@ -4182,10 +4161,10 @@
         <v>147</v>
       </c>
       <c r="I79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K79" t="s">
         <v>139</v>
@@ -4193,7 +4172,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B80" t="s">
         <v>45</v>
@@ -4217,10 +4196,10 @@
         <v>147</v>
       </c>
       <c r="I80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K80" t="s">
         <v>139</v>
@@ -4228,7 +4207,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B81" t="s">
         <v>45</v>
@@ -4252,10 +4231,10 @@
         <v>147</v>
       </c>
       <c r="I81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K81" t="s">
         <v>139</v>
@@ -4263,7 +4242,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
         <v>45</v>
@@ -4287,10 +4266,10 @@
         <v>147</v>
       </c>
       <c r="I82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K82" t="s">
         <v>139</v>
@@ -4298,7 +4277,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B83" t="s">
         <v>45</v>
@@ -4322,10 +4301,10 @@
         <v>147</v>
       </c>
       <c r="I83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K83" t="s">
         <v>139</v>
@@ -4333,7 +4312,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B84" t="s">
         <v>46</v>
@@ -4357,10 +4336,10 @@
         <v>147</v>
       </c>
       <c r="I84" t="s">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="J84" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K84" t="s">
         <v>139</v>
@@ -4368,7 +4347,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B85" t="s">
         <v>46</v>
@@ -4403,7 +4382,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B86" t="s">
         <v>47</v>
@@ -4427,10 +4406,10 @@
         <v>147</v>
       </c>
       <c r="I86" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J86" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K86">
         <v>10</v>
@@ -4438,7 +4417,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B87" t="s">
         <v>47</v>
@@ -4462,10 +4441,10 @@
         <v>147</v>
       </c>
       <c r="I87" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K87">
         <v>10</v>
@@ -4473,7 +4452,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B88" t="s">
         <v>48</v>
@@ -4497,10 +4476,10 @@
         <v>147</v>
       </c>
       <c r="I88" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K88" t="s">
         <v>139</v>
@@ -4508,7 +4487,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
@@ -4532,10 +4511,10 @@
         <v>147</v>
       </c>
       <c r="I89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J89" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K89" t="s">
         <v>139</v>
@@ -4543,7 +4522,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B90" t="s">
         <v>50</v>
@@ -4578,7 +4557,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
         <v>50</v>
@@ -4613,7 +4592,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B92" t="s">
         <v>50</v>
@@ -4648,7 +4627,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B93" t="s">
         <v>50</v>
@@ -4683,7 +4662,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B94" t="s">
         <v>50</v>
@@ -4718,7 +4697,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
         <v>51</v>
@@ -4753,7 +4732,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B96" t="s">
         <v>52</v>
@@ -4777,10 +4756,10 @@
         <v>140</v>
       </c>
       <c r="I96" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="J96" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="K96" t="s">
         <v>139</v>
@@ -4788,7 +4767,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
@@ -4812,10 +4791,10 @@
         <v>147</v>
       </c>
       <c r="I97" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K97" t="s">
         <v>139</v>
@@ -4823,7 +4802,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
@@ -4847,10 +4826,10 @@
         <v>147</v>
       </c>
       <c r="I98" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K98" t="s">
         <v>139</v>
@@ -4858,7 +4837,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
@@ -4882,10 +4861,10 @@
         <v>147</v>
       </c>
       <c r="I99" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J99" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K99" t="s">
         <v>139</v>
@@ -4893,7 +4872,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s">
         <v>53</v>
@@ -4917,10 +4896,10 @@
         <v>147</v>
       </c>
       <c r="I100" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J100" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K100" t="s">
         <v>139</v>
@@ -4928,7 +4907,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B101" t="s">
         <v>53</v>
@@ -4952,10 +4931,10 @@
         <v>147</v>
       </c>
       <c r="I101" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J101" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K101" t="s">
         <v>139</v>
@@ -4963,7 +4942,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B102" t="s">
         <v>53</v>
@@ -4987,10 +4966,10 @@
         <v>147</v>
       </c>
       <c r="I102" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K102" t="s">
         <v>139</v>
@@ -4998,7 +4977,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B103" t="s">
         <v>53</v>
@@ -5022,10 +5001,10 @@
         <v>147</v>
       </c>
       <c r="I103" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J103" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K103" t="s">
         <v>139</v>
@@ -5033,7 +5012,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B104" t="s">
         <v>53</v>
@@ -5057,10 +5036,10 @@
         <v>147</v>
       </c>
       <c r="I104" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J104" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K104" t="s">
         <v>139</v>
@@ -5068,7 +5047,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B105" t="s">
         <v>54</v>
@@ -5092,10 +5071,10 @@
         <v>147</v>
       </c>
       <c r="I105" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J105" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K105" t="s">
         <v>139</v>
@@ -5103,7 +5082,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B106" t="s">
         <v>54</v>
@@ -5127,10 +5106,10 @@
         <v>147</v>
       </c>
       <c r="I106" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K106" t="s">
         <v>139</v>
@@ -5138,7 +5117,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B107" t="s">
         <v>54</v>
@@ -5162,10 +5141,10 @@
         <v>147</v>
       </c>
       <c r="I107" t="s">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="J107" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K107" t="s">
         <v>139</v>
@@ -5173,7 +5152,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B108" t="s">
         <v>55</v>
@@ -5208,7 +5187,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B109" t="s">
         <v>55</v>
@@ -5243,7 +5222,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B110" t="s">
         <v>56</v>
@@ -5267,10 +5246,10 @@
         <v>147</v>
       </c>
       <c r="I110" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J110" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K110" t="s">
         <v>139</v>
@@ -5278,7 +5257,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B111" t="s">
         <v>56</v>
@@ -5302,10 +5281,10 @@
         <v>147</v>
       </c>
       <c r="I111" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J111" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K111" t="s">
         <v>139</v>
@@ -5313,7 +5292,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B112" t="s">
         <v>56</v>
@@ -5337,10 +5316,10 @@
         <v>147</v>
       </c>
       <c r="I112" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J112" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K112" t="s">
         <v>139</v>
@@ -5348,7 +5327,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B113" t="s">
         <v>56</v>
@@ -5372,10 +5351,10 @@
         <v>147</v>
       </c>
       <c r="I113" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J113" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K113" t="s">
         <v>139</v>
@@ -5383,7 +5362,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B114" t="s">
         <v>57</v>
@@ -5407,10 +5386,10 @@
         <v>147</v>
       </c>
       <c r="I114" t="s">
+        <v>148</v>
+      </c>
+      <c r="J114" t="s">
         <v>149</v>
-      </c>
-      <c r="J114" t="s">
-        <v>150</v>
       </c>
       <c r="K114" t="s">
         <v>139</v>
@@ -5418,7 +5397,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B115" t="s">
         <v>57</v>
@@ -5442,10 +5421,10 @@
         <v>147</v>
       </c>
       <c r="I115" t="s">
+        <v>148</v>
+      </c>
+      <c r="J115" t="s">
         <v>149</v>
-      </c>
-      <c r="J115" t="s">
-        <v>150</v>
       </c>
       <c r="K115" t="s">
         <v>139</v>
@@ -5453,7 +5432,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B116" t="s">
         <v>58</v>
@@ -5477,10 +5456,10 @@
         <v>147</v>
       </c>
       <c r="I116" t="s">
+        <v>148</v>
+      </c>
+      <c r="J116" t="s">
         <v>149</v>
-      </c>
-      <c r="J116" t="s">
-        <v>150</v>
       </c>
       <c r="K116" t="s">
         <v>139</v>
@@ -5488,7 +5467,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
         <v>58</v>
@@ -5512,10 +5491,10 @@
         <v>147</v>
       </c>
       <c r="I117" t="s">
+        <v>148</v>
+      </c>
+      <c r="J117" t="s">
         <v>149</v>
-      </c>
-      <c r="J117" t="s">
-        <v>150</v>
       </c>
       <c r="K117" t="s">
         <v>139</v>
@@ -5523,7 +5502,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
         <v>58</v>
@@ -5547,10 +5526,10 @@
         <v>147</v>
       </c>
       <c r="I118" t="s">
+        <v>148</v>
+      </c>
+      <c r="J118" t="s">
         <v>149</v>
-      </c>
-      <c r="J118" t="s">
-        <v>150</v>
       </c>
       <c r="K118" t="s">
         <v>139</v>
@@ -5558,7 +5537,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B119" t="s">
         <v>58</v>
@@ -5582,10 +5561,10 @@
         <v>147</v>
       </c>
       <c r="I119" t="s">
+        <v>148</v>
+      </c>
+      <c r="J119" t="s">
         <v>149</v>
-      </c>
-      <c r="J119" t="s">
-        <v>150</v>
       </c>
       <c r="K119" t="s">
         <v>139</v>
@@ -5593,7 +5572,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s">
         <v>58</v>
@@ -5617,10 +5596,10 @@
         <v>147</v>
       </c>
       <c r="I120" t="s">
+        <v>148</v>
+      </c>
+      <c r="J120" t="s">
         <v>149</v>
-      </c>
-      <c r="J120" t="s">
-        <v>150</v>
       </c>
       <c r="K120" t="s">
         <v>139</v>
@@ -5628,7 +5607,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
         <v>59</v>
@@ -5652,10 +5631,10 @@
         <v>147</v>
       </c>
       <c r="I121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K121" t="s">
         <v>139</v>
@@ -5663,7 +5642,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B122" t="s">
         <v>60</v>
@@ -5687,10 +5666,10 @@
         <v>147</v>
       </c>
       <c r="I122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J122" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K122" t="s">
         <v>139</v>
@@ -5698,7 +5677,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B123" t="s">
         <v>61</v>
@@ -5722,10 +5701,10 @@
         <v>147</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J123" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K123" t="s">
         <v>139</v>
@@ -5733,7 +5712,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B124" t="s">
         <v>61</v>
@@ -5768,7 +5747,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B125" t="s">
         <v>61</v>
@@ -5803,7 +5782,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B126" t="s">
         <v>61</v>
@@ -5838,7 +5817,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B127" t="s">
         <v>61</v>
@@ -5873,7 +5852,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B128" t="s">
         <v>61</v>
@@ -5908,7 +5887,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B129" t="s">
         <v>61</v>
@@ -5943,7 +5922,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B130" t="s">
         <v>61</v>
@@ -5978,7 +5957,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B131" t="s">
         <v>62</v>
@@ -6013,7 +5992,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B132" t="s">
         <v>62</v>
@@ -6048,7 +6027,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
@@ -6083,7 +6062,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B134" t="s">
         <v>62</v>
@@ -6118,7 +6097,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B135" t="s">
         <v>62</v>
@@ -6153,7 +6132,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B136" t="s">
         <v>62</v>
@@ -6188,7 +6167,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B137" t="s">
         <v>62</v>
@@ -6223,7 +6202,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B138" t="s">
         <v>62</v>
@@ -6258,7 +6237,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B139" t="s">
         <v>62</v>
@@ -6293,7 +6272,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B140" t="s">
         <v>63</v>
@@ -6317,10 +6296,10 @@
         <v>147</v>
       </c>
       <c r="I140" t="s">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="J140" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K140" t="s">
         <v>139</v>
@@ -6328,7 +6307,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -6352,10 +6331,10 @@
         <v>147</v>
       </c>
       <c r="I141" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J141" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K141" t="s">
         <v>139</v>
@@ -6363,7 +6342,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
@@ -6387,10 +6366,10 @@
         <v>147</v>
       </c>
       <c r="I142" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K142" t="s">
         <v>139</v>
@@ -6398,7 +6377,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B143" t="s">
         <v>63</v>
@@ -6422,10 +6401,10 @@
         <v>147</v>
       </c>
       <c r="I143" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J143" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K143" t="s">
         <v>139</v>
@@ -6433,7 +6412,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B144" t="s">
         <v>63</v>
@@ -6457,10 +6436,10 @@
         <v>147</v>
       </c>
       <c r="I144" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K144" t="s">
         <v>139</v>
@@ -6468,7 +6447,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B145" t="s">
         <v>63</v>
@@ -6492,10 +6471,10 @@
         <v>147</v>
       </c>
       <c r="I145" t="s">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="J145" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K145" t="s">
         <v>139</v>
@@ -6503,7 +6482,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B146" t="s">
         <v>63</v>
@@ -6527,10 +6506,10 @@
         <v>147</v>
       </c>
       <c r="I146" t="s">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="J146" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K146" t="s">
         <v>139</v>
@@ -6538,7 +6517,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B147" t="s">
         <v>64</v>
@@ -6562,10 +6541,10 @@
         <v>147</v>
       </c>
       <c r="I147" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J147" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K147" t="s">
         <v>139</v>
@@ -6573,7 +6552,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B148" t="s">
         <v>65</v>
@@ -6597,10 +6576,10 @@
         <v>147</v>
       </c>
       <c r="I148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K148" t="s">
         <v>139</v>
@@ -6608,7 +6587,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B149" t="s">
         <v>65</v>
@@ -6643,7 +6622,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B150" t="s">
         <v>65</v>
@@ -6678,7 +6657,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B151" t="s">
         <v>66</v>
@@ -6702,7 +6681,7 @@
         <v>147</v>
       </c>
       <c r="I151" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J151" t="s">
         <v>141</v>
@@ -6713,7 +6692,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B152" t="s">
         <v>67</v>
@@ -6737,10 +6716,10 @@
         <v>147</v>
       </c>
       <c r="I152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K152" t="s">
         <v>139</v>
@@ -6748,7 +6727,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B153" t="s">
         <v>67</v>
@@ -6772,10 +6751,10 @@
         <v>147</v>
       </c>
       <c r="I153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K153" t="s">
         <v>139</v>

--- a/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E9883-C4A6-F043-851B-DE4DBBCA4123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51B6C32-3755-DB48-BD57-D4F0766F3679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="520" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="316">
   <si>
     <t>DOI</t>
   </si>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>Cytokine concentration</t>
-  </si>
-  <si>
-    <t>Colony count</t>
   </si>
   <si>
     <t>Constant</t>
@@ -1393,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E80" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I121" activeCellId="6" sqref="I46 I52:I55 I62:I63 I65 I68:I69 I88 I121"/>
+    <sheetView tabSelected="1" topLeftCell="D65" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80:J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1404,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1442,7 +1439,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1477,7 +1474,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1512,7 +1509,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1547,7 +1544,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1582,7 +1579,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1652,7 +1649,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1722,7 +1719,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1757,7 +1754,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1792,7 +1789,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1827,7 +1824,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1862,7 +1859,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1897,7 +1894,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1932,7 +1929,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1967,7 +1964,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -2002,7 +1999,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -2037,7 +2034,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2052,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
         <v>137</v>
@@ -2061,10 +2058,10 @@
         <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
         <v>139</v>
@@ -2072,7 +2069,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2087,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
         <v>137</v>
@@ -2096,10 +2093,10 @@
         <v>140</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K20" t="s">
         <v>139</v>
@@ -2107,7 +2104,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2122,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
         <v>137</v>
@@ -2131,10 +2128,10 @@
         <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K21" t="s">
         <v>139</v>
@@ -2142,7 +2139,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2177,7 +2174,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2212,7 +2209,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2236,7 +2233,7 @@
         <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J24" t="s">
         <v>152</v>
@@ -2247,7 +2244,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -2271,10 +2268,10 @@
         <v>147</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s">
         <v>139</v>
@@ -2282,7 +2279,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -2306,10 +2303,10 @@
         <v>147</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s">
         <v>139</v>
@@ -2317,7 +2314,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -2341,10 +2338,10 @@
         <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s">
         <v>139</v>
@@ -2352,7 +2349,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -2376,10 +2373,10 @@
         <v>140</v>
       </c>
       <c r="I28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K28" t="s">
         <v>139</v>
@@ -2387,7 +2384,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -2411,7 +2408,7 @@
         <v>147</v>
       </c>
       <c r="I29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J29" t="s">
         <v>152</v>
@@ -2422,7 +2419,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -2446,7 +2443,7 @@
         <v>147</v>
       </c>
       <c r="I30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J30" t="s">
         <v>152</v>
@@ -2457,7 +2454,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -2492,7 +2489,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -2527,7 +2524,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -2562,7 +2559,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -2597,7 +2594,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -2667,7 +2664,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -2702,7 +2699,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -2737,7 +2734,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -2772,7 +2769,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -2807,7 +2804,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -2842,7 +2839,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -2877,7 +2874,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -2912,7 +2909,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -2947,7 +2944,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -2982,7 +2979,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -3017,7 +3014,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
@@ -3052,7 +3049,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
@@ -3087,7 +3084,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
@@ -3122,7 +3119,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -3157,7 +3154,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
@@ -3192,7 +3189,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
@@ -3227,7 +3224,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
@@ -3262,7 +3259,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
@@ -3332,7 +3329,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
@@ -3367,7 +3364,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
@@ -3402,7 +3399,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58" t="s">
         <v>28</v>
@@ -3437,7 +3434,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
@@ -3472,7 +3469,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" t="s">
         <v>28</v>
@@ -3507,7 +3504,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
@@ -3542,7 +3539,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B62" t="s">
         <v>28</v>
@@ -3577,7 +3574,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s">
         <v>28</v>
@@ -3612,7 +3609,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B64" t="s">
         <v>28</v>
@@ -3647,7 +3644,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B65" t="s">
         <v>28</v>
@@ -3682,7 +3679,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
@@ -3717,7 +3714,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B67" t="s">
         <v>28</v>
@@ -3752,7 +3749,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B68" t="s">
         <v>28</v>
@@ -3787,7 +3784,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B69" t="s">
         <v>28</v>
@@ -3822,7 +3819,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B70" t="s">
         <v>28</v>
@@ -3857,7 +3854,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B71" t="s">
         <v>28</v>
@@ -3892,7 +3889,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
         <v>28</v>
@@ -3927,7 +3924,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
@@ -3962,7 +3959,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -3997,7 +3994,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -4032,7 +4029,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
         <v>43</v>
@@ -4067,7 +4064,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
@@ -4102,7 +4099,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -4137,7 +4134,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
         <v>44</v>
@@ -4172,7 +4169,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s">
         <v>45</v>
@@ -4196,10 +4193,10 @@
         <v>147</v>
       </c>
       <c r="I80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J80" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K80" t="s">
         <v>139</v>
@@ -4207,7 +4204,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s">
         <v>45</v>
@@ -4231,10 +4228,10 @@
         <v>147</v>
       </c>
       <c r="I81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J81" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K81" t="s">
         <v>139</v>
@@ -4242,7 +4239,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B82" t="s">
         <v>45</v>
@@ -4266,10 +4263,10 @@
         <v>147</v>
       </c>
       <c r="I82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J82" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K82" t="s">
         <v>139</v>
@@ -4277,7 +4274,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
         <v>45</v>
@@ -4301,10 +4298,10 @@
         <v>147</v>
       </c>
       <c r="I83" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J83" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K83" t="s">
         <v>139</v>
@@ -4312,7 +4309,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B84" t="s">
         <v>46</v>
@@ -4336,10 +4333,10 @@
         <v>147</v>
       </c>
       <c r="I84" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J84" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K84" t="s">
         <v>139</v>
@@ -4347,7 +4344,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
         <v>46</v>
@@ -4382,7 +4379,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B86" t="s">
         <v>47</v>
@@ -4417,7 +4414,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B87" t="s">
         <v>47</v>
@@ -4452,7 +4449,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B88" t="s">
         <v>48</v>
@@ -4487,7 +4484,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
@@ -4522,7 +4519,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
         <v>50</v>
@@ -4557,7 +4554,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B91" t="s">
         <v>50</v>
@@ -4592,7 +4589,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B92" t="s">
         <v>50</v>
@@ -4627,7 +4624,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B93" t="s">
         <v>50</v>
@@ -4662,7 +4659,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
         <v>50</v>
@@ -4697,7 +4694,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
         <v>51</v>
@@ -4732,7 +4729,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B96" t="s">
         <v>52</v>
@@ -4767,7 +4764,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
@@ -4791,7 +4788,7 @@
         <v>147</v>
       </c>
       <c r="I97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J97" t="s">
         <v>152</v>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
@@ -4826,7 +4823,7 @@
         <v>147</v>
       </c>
       <c r="I98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J98" t="s">
         <v>152</v>
@@ -4837,7 +4834,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
@@ -4861,7 +4858,7 @@
         <v>147</v>
       </c>
       <c r="I99" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J99" t="s">
         <v>152</v>
@@ -4872,7 +4869,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B100" t="s">
         <v>53</v>
@@ -4896,7 +4893,7 @@
         <v>147</v>
       </c>
       <c r="I100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J100" t="s">
         <v>152</v>
@@ -4907,7 +4904,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B101" t="s">
         <v>53</v>
@@ -4931,7 +4928,7 @@
         <v>147</v>
       </c>
       <c r="I101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J101" t="s">
         <v>152</v>
@@ -4942,7 +4939,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B102" t="s">
         <v>53</v>
@@ -4966,7 +4963,7 @@
         <v>147</v>
       </c>
       <c r="I102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J102" t="s">
         <v>152</v>
@@ -4977,7 +4974,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B103" t="s">
         <v>53</v>
@@ -5001,7 +4998,7 @@
         <v>147</v>
       </c>
       <c r="I103" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J103" t="s">
         <v>152</v>
@@ -5012,7 +5009,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B104" t="s">
         <v>53</v>
@@ -5036,7 +5033,7 @@
         <v>147</v>
       </c>
       <c r="I104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J104" t="s">
         <v>152</v>
@@ -5047,7 +5044,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B105" t="s">
         <v>54</v>
@@ -5071,7 +5068,7 @@
         <v>147</v>
       </c>
       <c r="I105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J105" t="s">
         <v>152</v>
@@ -5082,7 +5079,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B106" t="s">
         <v>54</v>
@@ -5106,7 +5103,7 @@
         <v>147</v>
       </c>
       <c r="I106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J106" t="s">
         <v>152</v>
@@ -5117,7 +5114,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B107" t="s">
         <v>54</v>
@@ -5141,7 +5138,7 @@
         <v>147</v>
       </c>
       <c r="I107" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J107" t="s">
         <v>152</v>
@@ -5152,7 +5149,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B108" t="s">
         <v>55</v>
@@ -5187,7 +5184,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B109" t="s">
         <v>55</v>
@@ -5222,7 +5219,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B110" t="s">
         <v>56</v>
@@ -5246,10 +5243,10 @@
         <v>147</v>
       </c>
       <c r="I110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K110" t="s">
         <v>139</v>
@@ -5257,7 +5254,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B111" t="s">
         <v>56</v>
@@ -5281,10 +5278,10 @@
         <v>147</v>
       </c>
       <c r="I111" t="s">
+        <v>156</v>
+      </c>
+      <c r="J111" t="s">
         <v>157</v>
-      </c>
-      <c r="J111" t="s">
-        <v>158</v>
       </c>
       <c r="K111" t="s">
         <v>139</v>
@@ -5292,7 +5289,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B112" t="s">
         <v>56</v>
@@ -5316,10 +5313,10 @@
         <v>147</v>
       </c>
       <c r="I112" t="s">
+        <v>156</v>
+      </c>
+      <c r="J112" t="s">
         <v>157</v>
-      </c>
-      <c r="J112" t="s">
-        <v>158</v>
       </c>
       <c r="K112" t="s">
         <v>139</v>
@@ -5327,7 +5324,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B113" t="s">
         <v>56</v>
@@ -5351,10 +5348,10 @@
         <v>147</v>
       </c>
       <c r="I113" t="s">
+        <v>156</v>
+      </c>
+      <c r="J113" t="s">
         <v>157</v>
-      </c>
-      <c r="J113" t="s">
-        <v>158</v>
       </c>
       <c r="K113" t="s">
         <v>139</v>
@@ -5362,7 +5359,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B114" t="s">
         <v>57</v>
@@ -5397,7 +5394,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
         <v>57</v>
@@ -5432,7 +5429,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B116" t="s">
         <v>58</v>
@@ -5467,7 +5464,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B117" t="s">
         <v>58</v>
@@ -5502,7 +5499,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B118" t="s">
         <v>58</v>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B119" t="s">
         <v>58</v>
@@ -5572,7 +5569,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B120" t="s">
         <v>58</v>
@@ -5607,7 +5604,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B121" t="s">
         <v>59</v>
@@ -5642,7 +5639,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B122" t="s">
         <v>60</v>
@@ -5677,7 +5674,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B123" t="s">
         <v>61</v>
@@ -5712,7 +5709,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B124" t="s">
         <v>61</v>
@@ -5747,7 +5744,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B125" t="s">
         <v>61</v>
@@ -5782,7 +5779,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B126" t="s">
         <v>61</v>
@@ -5817,7 +5814,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B127" t="s">
         <v>61</v>
@@ -5852,7 +5849,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B128" t="s">
         <v>61</v>
@@ -5887,7 +5884,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B129" t="s">
         <v>61</v>
@@ -5922,7 +5919,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B130" t="s">
         <v>61</v>
@@ -5957,7 +5954,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B131" t="s">
         <v>62</v>
@@ -5992,7 +5989,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B132" t="s">
         <v>62</v>
@@ -6027,7 +6024,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
@@ -6062,7 +6059,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B134" t="s">
         <v>62</v>
@@ -6097,7 +6094,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B135" t="s">
         <v>62</v>
@@ -6132,7 +6129,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B136" t="s">
         <v>62</v>
@@ -6167,7 +6164,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B137" t="s">
         <v>62</v>
@@ -6202,7 +6199,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B138" t="s">
         <v>62</v>
@@ -6237,7 +6234,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B139" t="s">
         <v>62</v>
@@ -6272,7 +6269,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B140" t="s">
         <v>63</v>
@@ -6296,7 +6293,7 @@
         <v>147</v>
       </c>
       <c r="I140" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J140" t="s">
         <v>152</v>
@@ -6307,7 +6304,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B141" t="s">
         <v>63</v>
@@ -6342,7 +6339,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
@@ -6377,7 +6374,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B143" t="s">
         <v>63</v>
@@ -6412,7 +6409,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B144" t="s">
         <v>63</v>
@@ -6447,7 +6444,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B145" t="s">
         <v>63</v>
@@ -6471,7 +6468,7 @@
         <v>147</v>
       </c>
       <c r="I145" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J145" t="s">
         <v>152</v>
@@ -6482,7 +6479,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B146" t="s">
         <v>63</v>
@@ -6506,7 +6503,7 @@
         <v>147</v>
       </c>
       <c r="I146" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J146" t="s">
         <v>152</v>
@@ -6517,7 +6514,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B147" t="s">
         <v>64</v>
@@ -6552,7 +6549,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B148" t="s">
         <v>65</v>
@@ -6587,7 +6584,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B149" t="s">
         <v>65</v>
@@ -6622,7 +6619,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B150" t="s">
         <v>65</v>
@@ -6657,7 +6654,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B151" t="s">
         <v>66</v>
@@ -6681,7 +6678,7 @@
         <v>147</v>
       </c>
       <c r="I151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J151" t="s">
         <v>141</v>
@@ -6692,7 +6689,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B152" t="s">
         <v>67</v>
@@ -6727,7 +6724,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B153" t="s">
         <v>67</v>

--- a/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51B6C32-3755-DB48-BD57-D4F0766F3679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2388A3-7FFC-C440-B359-0808BED0ECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="320">
   <si>
     <t>DOI</t>
   </si>
@@ -981,6 +981,18 @@
   </si>
   <si>
     <t>Characteristic concentration</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf8366_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf8366_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:scitranslmed.adf8366</t>
+  </si>
+  <si>
+    <t>CD4+ Tred/T conc ratio</t>
   </si>
 </sst>
 </file>
@@ -1388,14 +1400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D65" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80:J83"/>
+    <sheetView tabSelected="1" topLeftCell="F110" zoomScale="391" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115:J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -5359,10 +5372,10 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -5374,19 +5387,19 @@
         <v>7</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="G114" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H114" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I114" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J114" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K114" t="s">
         <v>139</v>
@@ -5394,10 +5407,10 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -5409,19 +5422,19 @@
         <v>7</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>119</v>
+        <v>319</v>
       </c>
       <c r="G115" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H115" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I115" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J115" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K115" t="s">
         <v>139</v>
@@ -5429,10 +5442,10 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B116" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -5444,7 +5457,7 @@
         <v>7</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G116" t="s">
         <v>143</v>
@@ -5464,10 +5477,10 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -5479,7 +5492,7 @@
         <v>7</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G117" t="s">
         <v>143</v>
@@ -5499,7 +5512,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B118" t="s">
         <v>58</v>
@@ -5508,7 +5521,7 @@
         <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
@@ -5534,7 +5547,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B119" t="s">
         <v>58</v>
@@ -5543,7 +5556,7 @@
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -5569,7 +5582,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B120" t="s">
         <v>58</v>
@@ -5578,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
@@ -5604,22 +5617,22 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E121" t="s">
         <v>7</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G121" t="s">
         <v>143</v>
@@ -5628,7 +5641,7 @@
         <v>147</v>
       </c>
       <c r="I121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J121" t="s">
         <v>149</v>
@@ -5639,22 +5652,22 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G122" t="s">
         <v>143</v>
@@ -5663,10 +5676,10 @@
         <v>147</v>
       </c>
       <c r="I122" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J122" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K122" t="s">
         <v>139</v>
@@ -5674,10 +5687,10 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -5689,7 +5702,7 @@
         <v>7</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="G123" t="s">
         <v>143</v>
@@ -5698,10 +5711,10 @@
         <v>147</v>
       </c>
       <c r="I123" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J123" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K123" t="s">
         <v>139</v>
@@ -5709,34 +5722,34 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G124" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I124" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="J124" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K124" t="s">
         <v>139</v>
@@ -5744,7 +5757,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B125" t="s">
         <v>61</v>
@@ -5753,25 +5766,25 @@
         <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G125" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H125" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I125" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="J125" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K125" t="s">
         <v>139</v>
@@ -5779,7 +5792,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B126" t="s">
         <v>61</v>
@@ -5788,7 +5801,7 @@
         <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E126" t="s">
         <v>7</v>
@@ -5814,7 +5827,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B127" t="s">
         <v>61</v>
@@ -5823,7 +5836,7 @@
         <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E127" t="s">
         <v>7</v>
@@ -5849,7 +5862,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B128" t="s">
         <v>61</v>
@@ -5858,7 +5871,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E128" t="s">
         <v>7</v>
@@ -5884,7 +5897,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B129" t="s">
         <v>61</v>
@@ -5893,7 +5906,7 @@
         <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -5919,7 +5932,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B130" t="s">
         <v>61</v>
@@ -5928,7 +5941,7 @@
         <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E130" t="s">
         <v>7</v>
@@ -5954,34 +5967,34 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E131" t="s">
         <v>7</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G131" t="s">
         <v>137</v>
       </c>
       <c r="H131" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I131" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K131" t="s">
         <v>139</v>
@@ -5989,34 +6002,34 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
       </c>
       <c r="H132" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K132" t="s">
         <v>139</v>
@@ -6024,7 +6037,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
@@ -6033,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -6059,7 +6072,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B134" t="s">
         <v>62</v>
@@ -6068,7 +6081,7 @@
         <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
@@ -6094,7 +6107,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B135" t="s">
         <v>62</v>
@@ -6103,7 +6116,7 @@
         <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E135" t="s">
         <v>7</v>
@@ -6129,7 +6142,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B136" t="s">
         <v>62</v>
@@ -6138,7 +6151,7 @@
         <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
@@ -6164,7 +6177,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B137" t="s">
         <v>62</v>
@@ -6173,7 +6186,7 @@
         <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E137" t="s">
         <v>7</v>
@@ -6199,7 +6212,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B138" t="s">
         <v>62</v>
@@ -6208,7 +6221,7 @@
         <v>5</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E138" t="s">
         <v>7</v>
@@ -6234,7 +6247,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B139" t="s">
         <v>62</v>
@@ -6243,7 +6256,7 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
@@ -6269,34 +6282,34 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E140" t="s">
         <v>7</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G140" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H140" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I140" t="s">
-        <v>315</v>
+        <v>145</v>
       </c>
       <c r="J140" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K140" t="s">
         <v>139</v>
@@ -6304,34 +6317,34 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B141" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E141" t="s">
         <v>7</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="G141" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H141" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I141" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J141" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K141" t="s">
         <v>139</v>
@@ -6339,7 +6352,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
@@ -6348,13 +6361,13 @@
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G142" t="s">
         <v>143</v>
@@ -6363,7 +6376,7 @@
         <v>147</v>
       </c>
       <c r="I142" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="J142" t="s">
         <v>152</v>
@@ -6374,7 +6387,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B143" t="s">
         <v>63</v>
@@ -6383,7 +6396,7 @@
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -6409,7 +6422,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B144" t="s">
         <v>63</v>
@@ -6418,7 +6431,7 @@
         <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E144" t="s">
         <v>7</v>
@@ -6444,7 +6457,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B145" t="s">
         <v>63</v>
@@ -6453,13 +6466,13 @@
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E145" t="s">
         <v>7</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G145" t="s">
         <v>143</v>
@@ -6468,7 +6481,7 @@
         <v>147</v>
       </c>
       <c r="I145" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="J145" t="s">
         <v>152</v>
@@ -6479,7 +6492,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B146" t="s">
         <v>63</v>
@@ -6488,13 +6501,13 @@
         <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G146" t="s">
         <v>143</v>
@@ -6503,7 +6516,7 @@
         <v>147</v>
       </c>
       <c r="I146" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="J146" t="s">
         <v>152</v>
@@ -6514,22 +6527,22 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B147" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G147" t="s">
         <v>143</v>
@@ -6538,7 +6551,7 @@
         <v>147</v>
       </c>
       <c r="I147" t="s">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="J147" t="s">
         <v>152</v>
@@ -6549,22 +6562,22 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B148" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G148" t="s">
         <v>143</v>
@@ -6573,10 +6586,10 @@
         <v>147</v>
       </c>
       <c r="I148" t="s">
-        <v>149</v>
+        <v>315</v>
       </c>
       <c r="J148" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K148" t="s">
         <v>139</v>
@@ -6584,34 +6597,34 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G149" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H149" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I149" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J149" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K149" t="s">
         <v>139</v>
@@ -6619,7 +6632,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B150" t="s">
         <v>65</v>
@@ -6628,25 +6641,25 @@
         <v>5</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G150" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H150" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I150" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J150" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K150" t="s">
         <v>139</v>
@@ -6654,34 +6667,34 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B151" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E151" t="s">
         <v>7</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G151" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H151" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I151" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="J151" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K151" t="s">
         <v>139</v>
@@ -6689,34 +6702,34 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B152" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G152" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H152" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I152" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J152" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K152" t="s">
         <v>139</v>
@@ -6724,36 +6737,106 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B153" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G153" t="s">
+        <v>143</v>
+      </c>
+      <c r="H153" t="s">
+        <v>147</v>
+      </c>
+      <c r="I153" t="s">
+        <v>160</v>
+      </c>
+      <c r="J153" t="s">
+        <v>141</v>
+      </c>
+      <c r="K153" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B154" t="s">
+        <v>67</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G154" t="s">
+        <v>143</v>
+      </c>
+      <c r="H154" t="s">
+        <v>147</v>
+      </c>
+      <c r="I154" t="s">
+        <v>149</v>
+      </c>
+      <c r="J154" t="s">
+        <v>149</v>
+      </c>
+      <c r="K154" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B155" t="s">
         <v>67</v>
       </c>
-      <c r="C153" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s">
         <v>8</v>
       </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" s="3" t="s">
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G153" t="s">
-        <v>143</v>
-      </c>
-      <c r="H153" t="s">
-        <v>147</v>
-      </c>
-      <c r="I153" t="s">
+      <c r="G155" t="s">
+        <v>143</v>
+      </c>
+      <c r="H155" t="s">
+        <v>147</v>
+      </c>
+      <c r="I155" t="s">
         <v>149</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J155" t="s">
         <v>149</v>
       </c>
-      <c r="K153" t="s">
+      <c r="K155" t="s">
         <v>139</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/sci_transl_med/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/sci_transl_med/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2388A3-7FFC-C440-B359-0808BED0ECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AE2A78-D010-5048-9124-EEC084C2792D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,9 +239,6 @@
     <t>10.1126:scitranslmed.adi9867</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Fold change</t>
   </si>
   <si>
@@ -437,12 +434,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -993,25 +984,28 @@
   </si>
   <si>
     <t>CD4+ Tred/T conc ratio</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1088,15 +1082,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,14 +1396,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F110" zoomScale="391" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115:J115"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="391" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
@@ -1417,7 +1411,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1431,28 +1425,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1466,28 +1460,28 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>69</v>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1501,28 +1495,28 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>70</v>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" t="s">
         <v>137</v>
       </c>
-      <c r="H3" t="s">
-        <v>140</v>
-      </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1536,28 +1530,28 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>71</v>
+      <c r="F4" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1571,28 +1565,28 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>77</v>
+      <c r="F5" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1606,28 +1600,28 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>77</v>
+      <c r="F6" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1641,28 +1635,28 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>77</v>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1676,28 +1670,28 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>77</v>
+      <c r="F8" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1711,28 +1705,28 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>72</v>
+      <c r="F9" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1746,28 +1740,28 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>74</v>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1781,28 +1775,28 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>73</v>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1816,28 +1810,28 @@
       <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>75</v>
+      <c r="F12" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1851,28 +1845,28 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>76</v>
+      <c r="F13" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1886,28 +1880,28 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>71</v>
+      <c r="F14" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1921,28 +1915,28 @@
       <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>71</v>
+      <c r="F15" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1956,28 +1950,28 @@
       <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>71</v>
+      <c r="F16" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1991,28 +1985,28 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>78</v>
+      <c r="F17" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" t="s">
         <v>137</v>
       </c>
-      <c r="H17" t="s">
-        <v>140</v>
-      </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -2026,28 +2020,28 @@
       <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>78</v>
+      <c r="F18" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" t="s">
         <v>137</v>
       </c>
-      <c r="H18" t="s">
-        <v>140</v>
-      </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2061,28 +2055,28 @@
       <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>158</v>
+      <c r="F19" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
         <v>137</v>
       </c>
-      <c r="H19" t="s">
-        <v>140</v>
-      </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2096,28 +2090,28 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>158</v>
+      <c r="F20" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
         <v>137</v>
       </c>
-      <c r="H20" t="s">
-        <v>140</v>
-      </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2131,28 +2125,28 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>158</v>
+      <c r="F21" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" t="s">
         <v>137</v>
       </c>
-      <c r="H21" t="s">
-        <v>140</v>
-      </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2166,28 +2160,28 @@
       <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>79</v>
+      <c r="F22" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2201,28 +2195,28 @@
       <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>79</v>
+      <c r="F23" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2236,28 +2230,28 @@
       <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>80</v>
+      <c r="F24" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -2271,28 +2265,28 @@
       <c r="E25" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>81</v>
+      <c r="F25" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -2306,28 +2300,28 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>82</v>
+      <c r="F26" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -2341,28 +2335,28 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>83</v>
+      <c r="F27" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -2376,28 +2370,28 @@
       <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>84</v>
+      <c r="F28" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" t="s">
         <v>137</v>
       </c>
-      <c r="H28" t="s">
-        <v>140</v>
-      </c>
       <c r="I28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -2411,28 +2405,28 @@
       <c r="E29" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>80</v>
+      <c r="F29" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -2446,28 +2440,28 @@
       <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>80</v>
+      <c r="F30" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -2481,28 +2475,28 @@
       <c r="E31" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>85</v>
+      <c r="F31" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" t="s">
         <v>137</v>
       </c>
-      <c r="H31" t="s">
-        <v>140</v>
-      </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -2516,28 +2510,28 @@
       <c r="E32" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>87</v>
+      <c r="F32" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -2551,28 +2545,28 @@
       <c r="E33" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>87</v>
+      <c r="F33" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -2586,28 +2580,28 @@
       <c r="E34" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>87</v>
+      <c r="F34" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -2621,28 +2615,28 @@
       <c r="E35" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>87</v>
+      <c r="F35" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -2656,28 +2650,28 @@
       <c r="E36" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>88</v>
+      <c r="F36" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -2691,28 +2685,28 @@
       <c r="E37" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>85</v>
+      <c r="F37" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" t="s">
         <v>137</v>
       </c>
-      <c r="H37" t="s">
-        <v>140</v>
-      </c>
       <c r="I37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -2726,28 +2720,28 @@
       <c r="E38" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>86</v>
+      <c r="F38" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -2761,28 +2755,28 @@
       <c r="E39" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>87</v>
+      <c r="F39" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -2796,28 +2790,28 @@
       <c r="E40" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>87</v>
+      <c r="F40" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -2831,28 +2825,28 @@
       <c r="E41" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>87</v>
+      <c r="F41" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -2866,28 +2860,28 @@
       <c r="E42" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>87</v>
+      <c r="F42" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I42" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -2901,28 +2895,28 @@
       <c r="E43" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>87</v>
+      <c r="F43" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -2936,28 +2930,28 @@
       <c r="E44" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>87</v>
+      <c r="F44" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -2971,28 +2965,28 @@
       <c r="E45" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>87</v>
+      <c r="F45" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -3006,28 +3000,28 @@
       <c r="E46" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>89</v>
+      <c r="F46" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J46" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
@@ -3041,28 +3035,28 @@
       <c r="E47" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>150</v>
+      <c r="F47" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I47" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J47" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
@@ -3076,28 +3070,28 @@
       <c r="E48" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>150</v>
+      <c r="F48" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
@@ -3111,28 +3105,28 @@
       <c r="E49" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>150</v>
+      <c r="F49" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J49" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K49" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -3146,28 +3140,28 @@
       <c r="E50" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>150</v>
+      <c r="F50" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I50" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
@@ -3181,28 +3175,28 @@
       <c r="E51" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>150</v>
+      <c r="F51" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
@@ -3216,28 +3210,28 @@
       <c r="E52" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>92</v>
+      <c r="F52" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
@@ -3251,28 +3245,28 @@
       <c r="E53" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>92</v>
+      <c r="F53" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G53" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
@@ -3286,28 +3280,28 @@
       <c r="E54" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>92</v>
+      <c r="F54" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
@@ -3321,28 +3315,28 @@
       <c r="E55" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>92</v>
+      <c r="F55" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
@@ -3356,28 +3350,28 @@
       <c r="E56" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>91</v>
+      <c r="F56" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
@@ -3391,28 +3385,28 @@
       <c r="E57" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>90</v>
+      <c r="F57" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H57" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I57" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J57" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B58" t="s">
         <v>28</v>
@@ -3426,28 +3420,28 @@
       <c r="E58" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>91</v>
+      <c r="F58" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G58" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H58" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K58" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
@@ -3461,28 +3455,28 @@
       <c r="E59" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>90</v>
+      <c r="F59" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K59" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s">
         <v>28</v>
@@ -3496,28 +3490,28 @@
       <c r="E60" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>91</v>
+      <c r="F60" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H60" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J60" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K60" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
@@ -3531,28 +3525,28 @@
       <c r="E61" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>91</v>
+      <c r="F61" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I61" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B62" t="s">
         <v>28</v>
@@ -3566,28 +3560,28 @@
       <c r="E62" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>92</v>
+      <c r="F62" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G62" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K62" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
         <v>28</v>
@@ -3601,28 +3595,28 @@
       <c r="E63" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>92</v>
+      <c r="F63" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H63" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K63" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
         <v>28</v>
@@ -3636,28 +3630,28 @@
       <c r="E64" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>93</v>
+      <c r="F64" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H64" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B65" t="s">
         <v>28</v>
@@ -3671,28 +3665,28 @@
       <c r="E65" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>94</v>
+      <c r="F65" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I65" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J65" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K65" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
@@ -3706,28 +3700,28 @@
       <c r="E66" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>91</v>
+      <c r="F66" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J66" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B67" t="s">
         <v>28</v>
@@ -3741,28 +3735,28 @@
       <c r="E67" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>91</v>
+      <c r="F67" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G67" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B68" t="s">
         <v>28</v>
@@ -3776,28 +3770,28 @@
       <c r="E68" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>92</v>
+      <c r="F68" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G68" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H68" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I68" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J68" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K68" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B69" t="s">
         <v>28</v>
@@ -3811,28 +3805,28 @@
       <c r="E69" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>92</v>
+      <c r="F69" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H69" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I69" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J69" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K69" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
         <v>28</v>
@@ -3846,28 +3840,28 @@
       <c r="E70" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>91</v>
+      <c r="F70" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I70" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J70" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B71" t="s">
         <v>28</v>
@@ -3881,28 +3875,28 @@
       <c r="E71" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>91</v>
+      <c r="F71" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I71" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J71" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s">
         <v>28</v>
@@ -3916,28 +3910,28 @@
       <c r="E72" t="s">
         <v>7</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>91</v>
+      <c r="F72" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I72" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J72" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
@@ -3951,28 +3945,28 @@
       <c r="E73" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>95</v>
+      <c r="F73" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K73" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -3986,28 +3980,28 @@
       <c r="E74" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>95</v>
+      <c r="F74" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -4021,28 +4015,28 @@
       <c r="E75" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>153</v>
+      <c r="F75" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I75" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J75" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s">
         <v>43</v>
@@ -4056,28 +4050,28 @@
       <c r="E76" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>96</v>
+      <c r="F76" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H76" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I76" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J76" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K76" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
@@ -4091,28 +4085,28 @@
       <c r="E77" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>97</v>
+      <c r="F77" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G77" t="s">
+        <v>134</v>
+      </c>
+      <c r="H77" t="s">
         <v>137</v>
       </c>
-      <c r="H77" t="s">
-        <v>140</v>
-      </c>
       <c r="I77" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K77" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -4126,28 +4120,28 @@
       <c r="E78" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>98</v>
+      <c r="F78" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G78" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K78" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
         <v>44</v>
@@ -4161,28 +4155,28 @@
       <c r="E79" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>98</v>
+      <c r="F79" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G79" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K79" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
         <v>45</v>
@@ -4196,28 +4190,28 @@
       <c r="E80" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>99</v>
+      <c r="F80" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="G80" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I80" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K80" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
         <v>45</v>
@@ -4231,28 +4225,28 @@
       <c r="E81" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>99</v>
+      <c r="F81" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="G81" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H81" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J81" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K81" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B82" t="s">
         <v>45</v>
@@ -4266,28 +4260,28 @@
       <c r="E82" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>99</v>
+      <c r="F82" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="G82" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H82" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I82" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J82" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K82" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B83" t="s">
         <v>45</v>
@@ -4301,28 +4295,28 @@
       <c r="E83" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>99</v>
+      <c r="F83" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="G83" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H83" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I83" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J83" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K83" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B84" t="s">
         <v>46</v>
@@ -4336,28 +4330,28 @@
       <c r="E84" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>100</v>
+      <c r="F84" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="G84" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H84" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I84" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J84" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K84" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B85" t="s">
         <v>46</v>
@@ -4371,28 +4365,28 @@
       <c r="E85" t="s">
         <v>7</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>111</v>
+      <c r="F85" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H85" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J85" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K85" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
         <v>47</v>
@@ -4406,20 +4400,20 @@
       <c r="E86" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>101</v>
+      <c r="F86" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="G86" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H86" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I86" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J86" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K86">
         <v>10</v>
@@ -4427,7 +4421,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B87" t="s">
         <v>47</v>
@@ -4441,20 +4435,20 @@
       <c r="E87" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>101</v>
+      <c r="F87" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="G87" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H87" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I87" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J87" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K87">
         <v>10</v>
@@ -4462,7 +4456,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B88" t="s">
         <v>48</v>
@@ -4476,28 +4470,28 @@
       <c r="E88" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>102</v>
+      <c r="F88" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G88" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H88" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I88" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J88" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K88" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
@@ -4511,28 +4505,28 @@
       <c r="E89" t="s">
         <v>7</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>103</v>
+      <c r="F89" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="G89" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I89" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J89" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K89" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B90" t="s">
         <v>50</v>
@@ -4546,28 +4540,28 @@
       <c r="E90" t="s">
         <v>7</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>104</v>
+      <c r="F90" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="G90" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H90" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I90" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J90" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K90" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B91" t="s">
         <v>50</v>
@@ -4581,28 +4575,28 @@
       <c r="E91" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>105</v>
+      <c r="F91" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G91" t="s">
+        <v>134</v>
+      </c>
+      <c r="H91" t="s">
         <v>137</v>
       </c>
-      <c r="H91" t="s">
-        <v>140</v>
-      </c>
       <c r="I91" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J91" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K91" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B92" t="s">
         <v>50</v>
@@ -4616,28 +4610,28 @@
       <c r="E92" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>106</v>
+      <c r="F92" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="G92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H92" t="s">
         <v>137</v>
       </c>
-      <c r="H92" t="s">
-        <v>140</v>
-      </c>
       <c r="I92" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J92" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K92" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B93" t="s">
         <v>50</v>
@@ -4651,28 +4645,28 @@
       <c r="E93" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>107</v>
+      <c r="F93" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" t="s">
         <v>137</v>
       </c>
-      <c r="H93" t="s">
-        <v>140</v>
-      </c>
       <c r="I93" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J93" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K93" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B94" t="s">
         <v>50</v>
@@ -4686,28 +4680,28 @@
       <c r="E94" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>104</v>
+      <c r="F94" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="G94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H94" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I94" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J94" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K94" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B95" t="s">
         <v>51</v>
@@ -4721,28 +4715,28 @@
       <c r="E95" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>108</v>
+      <c r="F95" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="G95" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H95" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I95" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J95" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K95" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B96" t="s">
         <v>52</v>
@@ -4756,28 +4750,28 @@
       <c r="E96" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>110</v>
+      <c r="F96" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="G96" t="s">
+        <v>134</v>
+      </c>
+      <c r="H96" t="s">
         <v>137</v>
       </c>
-      <c r="H96" t="s">
-        <v>140</v>
-      </c>
       <c r="I96" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J96" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K96" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
@@ -4791,28 +4785,28 @@
       <c r="E97" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>109</v>
+      <c r="F97" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G97" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I97" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J97" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K97" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
@@ -4826,28 +4820,28 @@
       <c r="E98" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>109</v>
+      <c r="F98" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G98" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I98" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J98" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K98" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
@@ -4861,28 +4855,28 @@
       <c r="E99" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>112</v>
+      <c r="F99" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G99" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I99" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J99" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K99" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B100" t="s">
         <v>53</v>
@@ -4896,28 +4890,28 @@
       <c r="E100" t="s">
         <v>7</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>112</v>
+      <c r="F100" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G100" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I100" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J100" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K100" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B101" t="s">
         <v>53</v>
@@ -4931,28 +4925,28 @@
       <c r="E101" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>112</v>
+      <c r="F101" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G101" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H101" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I101" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J101" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K101" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B102" t="s">
         <v>53</v>
@@ -4966,28 +4960,28 @@
       <c r="E102" t="s">
         <v>7</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>112</v>
+      <c r="F102" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G102" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H102" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I102" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J102" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K102" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B103" t="s">
         <v>53</v>
@@ -5001,28 +4995,28 @@
       <c r="E103" t="s">
         <v>7</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>112</v>
+      <c r="F103" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G103" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H103" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I103" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J103" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K103" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B104" t="s">
         <v>53</v>
@@ -5036,28 +5030,28 @@
       <c r="E104" t="s">
         <v>7</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>112</v>
+      <c r="F104" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G104" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H104" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I104" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K104" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B105" t="s">
         <v>54</v>
@@ -5071,28 +5065,28 @@
       <c r="E105" t="s">
         <v>7</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>113</v>
+      <c r="F105" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="G105" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H105" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I105" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J105" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K105" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B106" t="s">
         <v>54</v>
@@ -5106,28 +5100,28 @@
       <c r="E106" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>114</v>
+      <c r="F106" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G106" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H106" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I106" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J106" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K106" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B107" t="s">
         <v>54</v>
@@ -5141,28 +5135,28 @@
       <c r="E107" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>113</v>
+      <c r="F107" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="G107" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H107" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I107" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J107" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K107" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B108" t="s">
         <v>55</v>
@@ -5176,28 +5170,28 @@
       <c r="E108" t="s">
         <v>7</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>115</v>
+      <c r="F108" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H108" t="s">
         <v>137</v>
       </c>
-      <c r="H108" t="s">
-        <v>140</v>
-      </c>
       <c r="I108" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J108" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K108" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B109" t="s">
         <v>55</v>
@@ -5211,28 +5205,28 @@
       <c r="E109" t="s">
         <v>7</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>115</v>
+      <c r="F109" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G109" t="s">
+        <v>134</v>
+      </c>
+      <c r="H109" t="s">
         <v>137</v>
       </c>
-      <c r="H109" t="s">
-        <v>140</v>
-      </c>
       <c r="I109" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J109" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K109" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B110" t="s">
         <v>56</v>
@@ -5246,28 +5240,28 @@
       <c r="E110" t="s">
         <v>7</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>116</v>
+      <c r="F110" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="G110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I110" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J110" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K110" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B111" t="s">
         <v>56</v>
@@ -5281,28 +5275,28 @@
       <c r="E111" t="s">
         <v>7</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>117</v>
+      <c r="F111" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G111" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I111" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J111" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K111" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B112" t="s">
         <v>56</v>
@@ -5316,28 +5310,28 @@
       <c r="E112" t="s">
         <v>7</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>117</v>
+      <c r="F112" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G112" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J112" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K112" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B113" t="s">
         <v>56</v>
@@ -5351,31 +5345,31 @@
       <c r="E113" t="s">
         <v>7</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>117</v>
+      <c r="F113" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G113" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H113" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I113" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J113" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K113" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -5386,31 +5380,31 @@
       <c r="E114" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>319</v>
+      <c r="F114" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="G114" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K114" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B115" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -5421,28 +5415,28 @@
       <c r="E115" t="s">
         <v>7</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>319</v>
+      <c r="F115" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="G115" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J115" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K115" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B116" t="s">
         <v>57</v>
@@ -5456,28 +5450,28 @@
       <c r="E116" t="s">
         <v>7</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>118</v>
+      <c r="F116" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G116" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I116" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J116" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B117" t="s">
         <v>57</v>
@@ -5491,28 +5485,28 @@
       <c r="E117" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>119</v>
+      <c r="F117" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G117" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I117" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J117" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K117" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B118" t="s">
         <v>58</v>
@@ -5526,28 +5520,28 @@
       <c r="E118" t="s">
         <v>7</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>120</v>
+      <c r="F118" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G118" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I118" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J118" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K118" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B119" t="s">
         <v>58</v>
@@ -5561,28 +5555,28 @@
       <c r="E119" t="s">
         <v>7</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>120</v>
+      <c r="F119" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G119" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I119" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J119" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K119" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B120" t="s">
         <v>58</v>
@@ -5596,28 +5590,28 @@
       <c r="E120" t="s">
         <v>7</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>120</v>
+      <c r="F120" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G120" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I120" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J120" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K120" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B121" t="s">
         <v>58</v>
@@ -5631,28 +5625,28 @@
       <c r="E121" t="s">
         <v>7</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>120</v>
+      <c r="F121" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G121" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I121" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J121" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K121" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B122" t="s">
         <v>58</v>
@@ -5666,28 +5660,28 @@
       <c r="E122" t="s">
         <v>7</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>120</v>
+      <c r="F122" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G122" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I122" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J122" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K122" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B123" t="s">
         <v>59</v>
@@ -5701,28 +5695,28 @@
       <c r="E123" t="s">
         <v>7</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>121</v>
+      <c r="F123" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="G123" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I123" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J123" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K123" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B124" t="s">
         <v>60</v>
@@ -5736,28 +5730,28 @@
       <c r="E124" t="s">
         <v>7</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>122</v>
+      <c r="F124" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="G124" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I124" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J124" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K124" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B125" t="s">
         <v>61</v>
@@ -5771,28 +5765,28 @@
       <c r="E125" t="s">
         <v>7</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>86</v>
+      <c r="F125" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G125" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I125" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J125" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K125" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B126" t="s">
         <v>61</v>
@@ -5806,28 +5800,28 @@
       <c r="E126" t="s">
         <v>7</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>123</v>
+      <c r="F126" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G126" t="s">
+        <v>134</v>
+      </c>
+      <c r="H126" t="s">
         <v>137</v>
       </c>
-      <c r="H126" t="s">
-        <v>140</v>
-      </c>
       <c r="I126" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J126" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B127" t="s">
         <v>61</v>
@@ -5841,28 +5835,28 @@
       <c r="E127" t="s">
         <v>7</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>123</v>
+      <c r="F127" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G127" t="s">
+        <v>134</v>
+      </c>
+      <c r="H127" t="s">
         <v>137</v>
       </c>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
       <c r="I127" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J127" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K127" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B128" t="s">
         <v>61</v>
@@ -5876,28 +5870,28 @@
       <c r="E128" t="s">
         <v>7</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>123</v>
+      <c r="F128" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G128" t="s">
+        <v>134</v>
+      </c>
+      <c r="H128" t="s">
         <v>137</v>
       </c>
-      <c r="H128" t="s">
-        <v>140</v>
-      </c>
       <c r="I128" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J128" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K128" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B129" t="s">
         <v>61</v>
@@ -5911,28 +5905,28 @@
       <c r="E129" t="s">
         <v>7</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>123</v>
+      <c r="F129" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G129" t="s">
+        <v>134</v>
+      </c>
+      <c r="H129" t="s">
         <v>137</v>
       </c>
-      <c r="H129" t="s">
-        <v>140</v>
-      </c>
       <c r="I129" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J129" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K129" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B130" t="s">
         <v>61</v>
@@ -5946,28 +5940,28 @@
       <c r="E130" t="s">
         <v>7</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>123</v>
+      <c r="F130" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G130" t="s">
+        <v>134</v>
+      </c>
+      <c r="H130" t="s">
         <v>137</v>
       </c>
-      <c r="H130" t="s">
-        <v>140</v>
-      </c>
       <c r="I130" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J130" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K130" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B131" t="s">
         <v>61</v>
@@ -5981,28 +5975,28 @@
       <c r="E131" t="s">
         <v>7</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>123</v>
+      <c r="F131" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G131" t="s">
+        <v>134</v>
+      </c>
+      <c r="H131" t="s">
         <v>137</v>
       </c>
-      <c r="H131" t="s">
-        <v>140</v>
-      </c>
       <c r="I131" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J131" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K131" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B132" t="s">
         <v>61</v>
@@ -6016,28 +6010,28 @@
       <c r="E132" t="s">
         <v>7</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>123</v>
+      <c r="F132" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G132" t="s">
+        <v>134</v>
+      </c>
+      <c r="H132" t="s">
         <v>137</v>
       </c>
-      <c r="H132" t="s">
-        <v>140</v>
-      </c>
       <c r="I132" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J132" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K132" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
@@ -6051,28 +6045,28 @@
       <c r="E133" t="s">
         <v>7</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>124</v>
+      <c r="F133" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G133" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H133" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I133" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J133" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K133" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B134" t="s">
         <v>62</v>
@@ -6086,28 +6080,28 @@
       <c r="E134" t="s">
         <v>7</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>124</v>
+      <c r="F134" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G134" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H134" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I134" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J134" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K134" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B135" t="s">
         <v>62</v>
@@ -6121,28 +6115,28 @@
       <c r="E135" t="s">
         <v>7</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>124</v>
+      <c r="F135" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G135" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H135" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I135" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J135" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K135" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B136" t="s">
         <v>62</v>
@@ -6156,28 +6150,28 @@
       <c r="E136" t="s">
         <v>7</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>124</v>
+      <c r="F136" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G136" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H136" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I136" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J136" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K136" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B137" t="s">
         <v>62</v>
@@ -6191,28 +6185,28 @@
       <c r="E137" t="s">
         <v>7</v>
       </c>
-      <c r="F137" s="3" t="s">
-        <v>124</v>
+      <c r="F137" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G137" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K137" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B138" t="s">
         <v>62</v>
@@ -6226,28 +6220,28 @@
       <c r="E138" t="s">
         <v>7</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>124</v>
+      <c r="F138" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G138" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H138" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I138" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J138" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K138" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B139" t="s">
         <v>62</v>
@@ -6261,28 +6255,28 @@
       <c r="E139" t="s">
         <v>7</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>124</v>
+      <c r="F139" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G139" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H139" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I139" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J139" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K139" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B140" t="s">
         <v>62</v>
@@ -6296,28 +6290,28 @@
       <c r="E140" t="s">
         <v>7</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>124</v>
+      <c r="F140" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G140" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H140" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I140" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J140" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K140" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B141" t="s">
         <v>62</v>
@@ -6331,28 +6325,28 @@
       <c r="E141" t="s">
         <v>7</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>124</v>
+      <c r="F141" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G141" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H141" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I141" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J141" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K141" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B142" t="s">
         <v>63</v>
@@ -6366,28 +6360,28 @@
       <c r="E142" t="s">
         <v>7</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>114</v>
+      <c r="F142" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G142" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H142" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I142" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J142" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K142" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B143" t="s">
         <v>63</v>
@@ -6401,28 +6395,28 @@
       <c r="E143" t="s">
         <v>7</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>86</v>
+      <c r="F143" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G143" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H143" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I143" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J143" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K143" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B144" t="s">
         <v>63</v>
@@ -6436,28 +6430,28 @@
       <c r="E144" t="s">
         <v>7</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>86</v>
+      <c r="F144" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G144" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H144" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I144" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J144" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K144" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B145" t="s">
         <v>63</v>
@@ -6471,28 +6465,28 @@
       <c r="E145" t="s">
         <v>7</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>86</v>
+      <c r="F145" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G145" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H145" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I145" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J145" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K145" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B146" t="s">
         <v>63</v>
@@ -6506,28 +6500,28 @@
       <c r="E146" t="s">
         <v>7</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>86</v>
+      <c r="F146" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G146" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H146" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J146" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K146" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B147" t="s">
         <v>63</v>
@@ -6541,28 +6535,28 @@
       <c r="E147" t="s">
         <v>7</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>125</v>
+      <c r="F147" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="G147" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H147" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I147" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J147" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K147" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B148" t="s">
         <v>63</v>
@@ -6576,28 +6570,28 @@
       <c r="E148" t="s">
         <v>7</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>114</v>
+      <c r="F148" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G148" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H148" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I148" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J148" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K148" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B149" t="s">
         <v>64</v>
@@ -6611,28 +6605,28 @@
       <c r="E149" t="s">
         <v>7</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>126</v>
+      <c r="F149" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="G149" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H149" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I149" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J149" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K149" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B150" t="s">
         <v>65</v>
@@ -6646,28 +6640,28 @@
       <c r="E150" t="s">
         <v>7</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>127</v>
+      <c r="F150" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="G150" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H150" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I150" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J150" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K150" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B151" t="s">
         <v>65</v>
@@ -6681,28 +6675,28 @@
       <c r="E151" t="s">
         <v>7</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>128</v>
+      <c r="F151" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="G151" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H151" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I151" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J151" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K151" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B152" t="s">
         <v>65</v>
@@ -6716,28 +6710,28 @@
       <c r="E152" t="s">
         <v>7</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>128</v>
+      <c r="F152" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="G152" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H152" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I152" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J152" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K152" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B153" t="s">
         <v>66</v>
@@ -6751,28 +6745,28 @@
       <c r="E153" t="s">
         <v>7</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>129</v>
+      <c r="F153" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="G153" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H153" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I153" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J153" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K153" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B154" t="s">
         <v>67</v>
@@ -6786,28 +6780,28 @@
       <c r="E154" t="s">
         <v>7</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>130</v>
+      <c r="F154" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="G154" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H154" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I154" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J154" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K154" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B155" t="s">
         <v>67</v>
@@ -6821,23 +6815,23 @@
       <c r="E155" t="s">
         <v>7</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>131</v>
+      <c r="F155" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="G155" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H155" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I155" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J155" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K155" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
